--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B212" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H212" s="10" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B213" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H213" s="10" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B214" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H214" s="10" t="inlineStr">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B215" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H215" s="10" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B216" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H216" s="10" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B217" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H217" s="10" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B218" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H218" s="10" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B219" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H219" s="10" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H220" s="10" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H221" s="10" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H222" s="10" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B223" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H223" s="10" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="B224" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H224" s="10" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B225" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H225" s="10" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B226" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H226" s="10" t="inlineStr">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B227" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H227" s="10" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H228" s="10" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H229" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -6399,7 +6399,7 @@
       </c>
       <c r="B230" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H230" s="10" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B231" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H231" s="10" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H232" s="10" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H233" s="10" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B234" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H234" s="10" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B235" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H235" s="10" t="inlineStr">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="B236" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H236" s="10" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B237" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H237" s="10" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H238" s="10" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H239" s="10" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B240" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H240" s="10" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H241" s="10" t="inlineStr">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H242" s="10" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H243" s="10" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B244" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H244" s="10" t="inlineStr">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H245" s="10" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="B246" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H246" s="10" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="B247" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H247" s="10" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B248" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H248" s="10" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B249" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H249" s="10" t="inlineStr">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="B250" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H250" s="10" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H251" s="10" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B252" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H252" s="10" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B253" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H253" s="10" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H254" s="10" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H255" s="10" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="B256" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H256" s="10" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B257" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H257" s="10" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B258" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H258" s="10" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H259" s="10" t="inlineStr">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B260" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H260" s="10" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B261" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H261" s="10" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B262" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H262" s="10" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="B263" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H263" s="10" t="inlineStr">
@@ -7011,6 +7011,23 @@
       </c>
       <c r="B264" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="D264" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="E264" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="F264" t="n">
+        <v>11</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -7019,7 +7036,16 @@
           <t>solve264</t>
         </is>
       </c>
-      <c r="J264" s="8" t="n"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D D R' R' U F F U D' R R F' B F' B U' F F B' U R' R' U' D B B B' U D' D' U L' R R B B' R' L U L L F F L' D F' F' D' L F L'</t>
+        </is>
+      </c>
+      <c r="J264" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=U_D-_R_L-_F_D_R_U_L-_U2_F2_U2_R-_B2_U2_R_U2_F2_%0A&amp;alg=_D_D_%2F%2Fmistake_from_here%0AR-_R-_U_F_F_U_D-_R_R_F-_B_F-_B_U-_F_F_B-_U_R-_R-_U-_D_B_B_B-_U_D-_D-_U_L-_R_R_B_B-_R-_L_U_L_L_F_F_L-_D_F-_F-_D-_L_F_L-_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="265">
       <c r="A265" s="3" t="inlineStr">
@@ -7029,7 +7055,7 @@
       </c>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H265" s="10" t="inlineStr">
@@ -7047,7 +7073,7 @@
       </c>
       <c r="B266" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H266" s="10" t="inlineStr">
@@ -7065,7 +7091,7 @@
       </c>
       <c r="B267" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H267" s="10" t="inlineStr">
@@ -7083,7 +7109,7 @@
       </c>
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H268" s="10" t="inlineStr">
@@ -7101,7 +7127,7 @@
       </c>
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H269" s="10" t="inlineStr">
@@ -7119,7 +7145,7 @@
       </c>
       <c r="B270" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H270" s="10" t="inlineStr">
@@ -7137,7 +7163,7 @@
       </c>
       <c r="B271" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H271" s="10" t="inlineStr">
@@ -7155,7 +7181,7 @@
       </c>
       <c r="B272" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H272" s="10" t="inlineStr">
@@ -7173,7 +7199,7 @@
       </c>
       <c r="B273" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H273" s="10" t="inlineStr">
@@ -7191,7 +7217,7 @@
       </c>
       <c r="B274" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H274" s="10" t="inlineStr">
@@ -7209,7 +7235,7 @@
       </c>
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H275" s="10" t="inlineStr">
@@ -7227,7 +7253,7 @@
       </c>
       <c r="B276" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H276" s="10" t="inlineStr">
@@ -7245,7 +7271,7 @@
       </c>
       <c r="B277" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H277" s="10" t="inlineStr">
@@ -7263,7 +7289,7 @@
       </c>
       <c r="B278" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H278" s="10" t="inlineStr">
@@ -7281,7 +7307,7 @@
       </c>
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H279" s="10" t="inlineStr">
@@ -7299,7 +7325,7 @@
       </c>
       <c r="B280" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H280" s="10" t="inlineStr">
@@ -7317,7 +7343,7 @@
       </c>
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H281" s="10" t="inlineStr">
@@ -7335,7 +7361,7 @@
       </c>
       <c r="B282" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H282" s="10" t="inlineStr">
@@ -7353,7 +7379,7 @@
       </c>
       <c r="B283" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H283" s="10" t="inlineStr">
@@ -7371,7 +7397,7 @@
       </c>
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H284" s="10" t="inlineStr">
@@ -7389,6 +7415,23 @@
       </c>
       <c r="B285" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D285" t="n">
+        <v>48.61</v>
+      </c>
+      <c r="E285" t="n">
+        <v>57</v>
+      </c>
+      <c r="F285" t="n">
+        <v>47</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -7397,7 +7440,16 @@
           <t>solve285</t>
         </is>
       </c>
-      <c r="J285" s="8" t="n"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> U L U' D F' U' U' F U D' L' U R' R' L2 L D L' D' R' R' L2 U L U' L' R U' R' D U' B B U D' R' U R' D U' D R' U D' F F U' D R' U D2 R' R' L2 D' L' R F' F' R' L D' R2 L L U D' F U' D R' U' R U D' F' D R' D R U R' D' R U U R' D R U R' D' R R' D R U R' D' R U R' D R U U R' D' R U' D' R' U R' D R U' R' D' R R U D R B R' F F R B' R' F F R2</t>
+        </is>
+      </c>
+      <c r="J285" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=R2_D-_R2_D2_B2_U_L2_R2_D_L2_U-_F2_B-_L2_U2_R_F_R_B2_F_%0A&amp;alg=_U_L_U-_D_F-_U-_U-_F_U_D-_L-_U_R-_R-_L2_L_D_L-_D-_R-_R-_L2_U_L_U-_L-_R_U-_R-_D_U-_B_B_U_D-_R-_U_R-_D_U-_D_R-_U_D-_F_F_U-_D_R-_U_D2_R-_R-_L2_D-_L-_R_F-_F-_R-_L_D-_R2_L_L_U_D-_F_U-_D_R-_U-_R_U_D-_F-_D_R-_D_R_U_R-_D-_R_U_U_R-_D_R_U_R-_D-_R_R-_D_R_U_R-_D-_R_U_R-_D_R_U_U_R-_D-_R_U-_D-_R-_U_R-_D_R_U-_R-_D-_R_R_U_D_R_B_R-_F_F_R_B-_R-_F_%2F%2Fmistake_from_here%0AF_R2_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="286">
       <c r="A286" s="3" t="inlineStr">
@@ -7407,7 +7459,7 @@
       </c>
       <c r="B286" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H286" s="10" t="inlineStr">
@@ -7425,7 +7477,7 @@
       </c>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H287" s="10" t="inlineStr">
@@ -7443,7 +7495,7 @@
       </c>
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H288" s="10" t="inlineStr">
@@ -7461,7 +7513,7 @@
       </c>
       <c r="B289" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H289" s="10" t="inlineStr">
@@ -7479,7 +7531,7 @@
       </c>
       <c r="B290" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H290" s="10" t="inlineStr">
@@ -7497,7 +7549,7 @@
       </c>
       <c r="B291" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H291" s="10" t="inlineStr">
@@ -7515,7 +7567,7 @@
       </c>
       <c r="B292" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H292" s="10" t="inlineStr">
@@ -7533,7 +7585,7 @@
       </c>
       <c r="B293" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H293" s="10" t="inlineStr">
@@ -7551,7 +7603,7 @@
       </c>
       <c r="B294" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H294" s="10" t="inlineStr">
@@ -7569,7 +7621,7 @@
       </c>
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H295" s="10" t="inlineStr">
@@ -7587,6 +7639,23 @@
       </c>
       <c r="B296" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>12</v>
+      </c>
+      <c r="D296" t="n">
+        <v>58.74</v>
+      </c>
+      <c r="E296" t="n">
+        <v>70.73999999999999</v>
+      </c>
+      <c r="F296" t="n">
+        <v>40</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -7595,7 +7664,16 @@
           <t>solve296</t>
         </is>
       </c>
-      <c r="J296" s="8" t="n"/>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> R' D' F F R' U D R U D' F' R D' U U' L' F B' U U F' B L' U U' L' F B' U U F' B L' U F L U' D F' U D' L F' F U' F' U' D R U D' F' U F' U' D R' B U' B' U D' U R U R' U' R' L F R F' L' R R U' F' B U' U' R R U R' U' R' R' D R D' R R U U' R' D' R U U R' D R U U R U U U R D' R' U R D R' U B' R U D D U' R' D D B B'</t>
+        </is>
+      </c>
+      <c r="J296" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=L-_U2_L_B2_F2_L_B2_F2_U2_L-_U2_L_B_U_L-_U2_B-_R-_D_L-_D_%0A&amp;alg=_R-_D-_F_F_R-_U_D_R_U_D-_F-_R_D-_U_U-_L-_F_B-_U_U_F-_B_L-_U_U-_L-_F_B-_U_U_F-_B_L-_U_F_L_U-_D_F-_U_D-_L_F-_F_U-_F-_U-_D_R_U_D-_F-_U_F-_U-_D_R-_B_U-_B-_U_D-_U_R_U_R-_U-_R-_L_F_R_F-_L-_R_R_U-_F-_B_U-_U-_%2F%2Fmistake_from_here%0AR_R_U_R-_U-_R-_R-_D_R_D-_R_R_U_U-_R-_D-_R_U_U_R-_D_R_U_U_R_U_U_U_R_D-_R-_U_R_D_R-_U_B-_R_U_D_D_U-_R-_D_D_B_B-_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="297">
       <c r="A297" s="3" t="inlineStr">
@@ -7605,7 +7683,7 @@
       </c>
       <c r="B297" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H297" s="10" t="inlineStr">
@@ -7623,7 +7701,7 @@
       </c>
       <c r="B298" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H298" s="10" t="inlineStr">
@@ -7641,7 +7719,7 @@
       </c>
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H299" s="10" t="inlineStr">
@@ -7659,7 +7737,7 @@
       </c>
       <c r="B300" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H300" s="10" t="inlineStr">
@@ -7677,7 +7755,7 @@
       </c>
       <c r="B301" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H301" s="10" t="inlineStr">
@@ -7695,7 +7773,7 @@
       </c>
       <c r="B302" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H302" s="10" t="inlineStr">
@@ -7713,7 +7791,7 @@
       </c>
       <c r="B303" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H303" s="10" t="inlineStr">
@@ -7731,7 +7809,7 @@
       </c>
       <c r="B304" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H304" s="10" t="inlineStr">
@@ -7749,7 +7827,7 @@
       </c>
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H305" s="10" t="inlineStr">
@@ -7767,7 +7845,7 @@
       </c>
       <c r="B306" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H306" s="10" t="inlineStr">
@@ -7785,7 +7863,7 @@
       </c>
       <c r="B307" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H307" s="10" t="inlineStr">
@@ -7803,7 +7881,7 @@
       </c>
       <c r="B308" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H308" s="10" t="inlineStr">
@@ -7821,7 +7899,7 @@
       </c>
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H309" s="10" t="inlineStr">
@@ -7839,7 +7917,7 @@
       </c>
       <c r="B310" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H310" s="10" t="inlineStr">
@@ -7857,7 +7935,7 @@
       </c>
       <c r="B311" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H311" s="10" t="inlineStr">
@@ -7875,7 +7953,7 @@
       </c>
       <c r="B312" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H312" s="10" t="inlineStr">
@@ -7893,7 +7971,7 @@
       </c>
       <c r="B313" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H313" s="10" t="inlineStr">
@@ -7911,7 +7989,7 @@
       </c>
       <c r="B314" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H314" s="10" t="inlineStr">
@@ -7929,7 +8007,7 @@
       </c>
       <c r="B315" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H315" s="10" t="inlineStr">
@@ -7947,7 +8025,7 @@
       </c>
       <c r="B316" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H316" s="10" t="inlineStr">
@@ -7965,7 +8043,7 @@
       </c>
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H317" s="10" t="inlineStr">
@@ -7983,7 +8061,7 @@
       </c>
       <c r="B318" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H318" s="10" t="inlineStr">
@@ -8001,7 +8079,7 @@
       </c>
       <c r="B319" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H319" s="10" t="inlineStr">
@@ -8019,7 +8097,7 @@
       </c>
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H320" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -455,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:K990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K236" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.65"/>
@@ -472,8 +472,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="255.59765625"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="255.59765625"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="66.86328125"/>
-    <col customWidth="1" max="49" min="12" style="1" width="9"/>
-    <col customWidth="1" max="16384" min="50" style="1" width="9"/>
+    <col customWidth="1" max="50" min="12" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="51" style="1" width="9"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.75" r="1">
@@ -539,20 +539,6 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66.62</v>
-      </c>
-      <c r="E2" t="n">
-        <v>89.63</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="G2" s="9" t="n"/>
       <c r="H2" s="10" t="inlineStr">
         <is>
@@ -560,11 +546,7 @@
         </is>
       </c>
       <c r="J2" s="11" t="n"/>
-      <c r="K2" s="11" t="inlineStr">
-        <is>
-          <t>"=HYPERLINK(CONCATENATE("C:\Python\PythonWork\BLD\RotoBLD\RotoDNF\videos\solve",ROW(),".avi"), CONCATENATE("solve",ROW()))</t>
-        </is>
-      </c>
+      <c r="K2" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -577,15 +559,6 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.71</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58.84</v>
-      </c>
       <c r="H3" s="10" t="inlineStr">
         <is>
           <t>solve3</t>
@@ -604,15 +577,6 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>91.75</v>
-      </c>
       <c r="H4" s="10" t="inlineStr">
         <is>
           <t>solve4</t>
@@ -649,33 +613,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.07</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33.88</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H6" s="10" t="inlineStr">
         <is>
           <t>solve6</t>
         </is>
       </c>
-      <c r="I6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L D L' R F' L' F R' L D' U' B' R R' L U' U' L' R B' R' U U R' F' B U U B' F R' U' L' R B' R R B R' L U' R R U D' D' L' R F' F' R' L D' D' R' L R' L U' R R U R' L R' L D' R R D D D R B R' F F R B' R' F F U' R' U L' L' U' R U L' L' R' D' R' D R U R' U D' R D U U R R U R' F' R U R' U' R' F R R U' R' U'</t>
-        </is>
-      </c>
+      <c r="I6" s="12" t="n"/>
       <c r="J6" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="7">
@@ -689,15 +632,6 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>61.89</v>
-      </c>
       <c r="H7" s="10" t="inlineStr">
         <is>
           <t>solve7</t>
@@ -716,33 +650,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="E8" t="n">
-        <v>32.15</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H8" s="10" t="inlineStr">
         <is>
           <t>solve8</t>
         </is>
       </c>
-      <c r="I8" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L D L' R F' L' F R' L D' U' B' R R' L U' U' L' B' R R' U U R' F' B U U B' F R' U' L' R B' R R B R' L U' R R U D' D' L' R F' F' R' L D' D' R' L R' L U' R R U R' L R' L D' R R D D' D' R B R' F F B' R R' F F U' R' U L' L' U' R U L' L' R' D' R' D R U U R' D' R D U U R R U R' F' R U R' U' R' F R U' R R' U'</t>
-        </is>
-      </c>
+      <c r="I8" s="12" t="n"/>
       <c r="J8" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="9">
@@ -756,33 +669,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D9" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="E9" t="n">
-        <v>32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H9" s="10" t="inlineStr">
         <is>
           <t>solve9</t>
         </is>
       </c>
-      <c r="I9" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L D L' R F' L' F R' L D' U' B' R R' L U' U' L' B' R R' U U R' F' B U U B' F R' U' L' R B' R R B R' L U' R R U D' D' L' R F' F' R' L D D R' L R' L U' R R U R' L R' L D' R R D D D R B R' F F R B' R' F F U' R' U L' L' U' R U L' L' R U R' F' R U R' U' R' F R U' R R' U'</t>
-        </is>
-      </c>
+      <c r="I9" s="12" t="n"/>
       <c r="J9" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="10">
@@ -796,33 +688,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="D10" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="E10" t="n">
-        <v>44.55</v>
-      </c>
-      <c r="F10" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H10" s="10" t="inlineStr">
         <is>
           <t>solve10</t>
         </is>
       </c>
-      <c r="I10" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' L R' L F R' F' R' L R' L B R B' U L' B' R' L U' U' L' B' R L U' U U R' U D' F U F' D U' R U R U' R F' B U' U' F B' R R U R' R' D R' L F' R F L' R U' R' U D' F' L' L' U' D F F D' U F U' D B' U D' R U' R' D U' B U U D' R U U R D' R' U U R D R' R' R U' L' U R U' L U R R U R' D U' R R' D' R</t>
-        </is>
-      </c>
+      <c r="I10" s="12" t="n"/>
       <c r="J10" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="11">
@@ -854,33 +725,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="D12" t="n">
-        <v>43.73</v>
-      </c>
-      <c r="E12" t="n">
-        <v>45.34</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H12" s="10" t="inlineStr">
         <is>
           <t>solve12</t>
         </is>
       </c>
-      <c r="I12" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L F' L' F B' U F U' B F' F R U R' U F D' U' F' D U' F' D U' R' U R' L R' L D' R D R' L R' L D' L' R B' L' B R' L R' L F' L F L' R D R' L F L F' L' R U L' U' D' R B R' L F' R' L D' R' L B' B' L' R D' L' R F' L' U' R U' B' R' R' D' R' L D' R' L B' R' L U' U' L' B' R L' R D' L' R F' F' D R F F R B R' F F R B' R' U' R D' R' U U R D R' U' U L U' R U L' U' R' R R' U F' R U R' U' R' F R R U' R' U'</t>
-        </is>
-      </c>
+      <c r="I12" s="12" t="n"/>
       <c r="J12" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="13">
@@ -895,16 +745,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.54</v>
+        <v>13.13</v>
       </c>
       <c r="D13" t="n">
-        <v>28.06</v>
+        <v>47.18</v>
       </c>
       <c r="E13" t="n">
-        <v>29.61</v>
+        <v>60.31</v>
       </c>
       <c r="F13" t="n">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -918,10 +768,14 @@
       </c>
       <c r="I13" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> D U' B' U' B D' U R' U R U R R U' R' L R' R F R R F' L' R U' R' U D' F U F' D U' R F' R' F B' D F F D' B F' R F' R' F' L F R' L R' L B' L' B L R' L U' R' D R U R' D' R U' R' D R U R' D' R F' R D R' U U R D' R' U U R D R' U U R D' R' U U F</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="n"/>
+          <t xml:space="preserve"> U' D B' U' B U D' R' U R U R R U' R' L F R R F' R L' U' R' U D' F U F' U' D R L F L' F' B D F' F' D' F B' L F L' D F' B D F' D' F B' L F L' D' R' D R U' R' D' R U D U' R' R' D D R U U R' D D R U U R D D D D D D D U' U U R2 D' R' U' R D R' U R' F' R B' R' F R B R'</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=R-_U-_F2_U_F2_U2_F2_R2_F2_U_L2_U-_L2_F-_D-_B-_D2_R_D_U2_R2_%0A&amp;alg=_U-_D_B-_U-_B_U_D-_R-_U_R_U_R_R_U-_R-_L_F_R_R_F-_R_L-_U-_R-_U_D-_F_U_F-_U-_D_R_L_F_L-_F-_B_D_F-_F-_D-_F_B-_L_F_L-_D_F-_B_D_F-_D-_F_B-_L_F_L-_D-_R-_D_R_U-_R-_D-_R_U_D_U-_R-_R-_D_D_R_U_U_R-_D_D_R_U_U_R_D_D_D_D_D_D_D_U-_U_U_R2_D-_R-_U-_R_D_R-_U_R-_F-_R_B-_R-_F_R_B_R-%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -970,38 +824,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D16" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="E16" t="n">
-        <v>38.45</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H16" s="10" t="inlineStr">
         <is>
           <t>solve16</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' L U' R' L F' F' L' R U' L' U R' U' F' B U' U' F B' R R U R L' B' R R' L U' U' L' B' R R' L U U D' B U' D L' L' U D' B U' D U' L' B' R R' L U' L' B' R R' L U' R U U R D R' U U R D' R' R' D U U R' D' R U U R' D R D' B U U F R U' R' U' R U R' F' R U R' U' R' F R F' U U B'</t>
-        </is>
-      </c>
-      <c r="J16" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R2_L2_U-_L-_D_R_U2_L_B_L2_B2_U-_B2_U_F2_U-_R2_D_B2_L2_U-_%0A&amp;alg=_U-_L_U-_R-_L_F-_F-_L-_R_U-_L-_U_R-_U-_F-_B_U-_U-_F_B-_R_R_U_R_L-_B-_R_R-_L_U-_U-_L-_B-_R_R-_L_U_U_D-_B_U-_D_L-_L-_U_D-_B_U-_D_U-_L-_B-_R_R-_L_U-_L-_B-_R_R-_L_U-_R_U_U_R_D_R-_U_U_R_D-_R-_R-_D_U_U_R-_D-_R_U_U_R-_D_R_D-_B_U_U_F_R_U-_R-_U-_R_U_R-_F-_R_U_R-_U-_R-_F_R_F-_U_U_B-%0A</t>
-        </is>
-      </c>
+      <c r="J16" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -1014,38 +842,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37.11</v>
-      </c>
-      <c r="E17" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>37.49</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H17" s="10" t="inlineStr">
         <is>
           <t>solve17</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B F' L' U' L R' F L F' L' R U B' F R' L F' L' F B' U U B F' L' F L' R R' F R R D U' B' B' U D' F' R R R U' R' R' F' B U U B' F U R R D' B' F D F D' F' B R F' R' D U U L U' D F' U' F D' U L' U' L U' R' U L U' R U L' L' D' D' R R D L' L' D' R R D L' L' D R R' U F' R U R' U' R' F R U' R R' U'</t>
-        </is>
-      </c>
-      <c r="J17" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D2_R2_F2_L2_U_R2_D_L2_F2_U_F2_U2_L-_D-_R-_U2_F2_D_F-_R-_F2%0A&amp;alg=_B_F-_L-_U-_L_R-_F_L_F-_L-_R_U_B-_F_R-_L_F-_L-_F_B-_U_U_B_F-_L-_F_L-_R_R-_F_R_R_D_U-_B-_B-_U_D-_F-_R_R_R_U-_R-_R-_F-_B_U_U_B-_F_U_R_R_D-_B-_F_D_F_D-_F-_B_R_F-_R-_D_U_U_L_U-_D_F-_U-_F_D-_U_L-_U-_L_U-_R-_U_L_U-_R_U_L-_L-_D-_D-_R_R_D_L-_L-_D-_R_R_D_L-_L-_D_R_R-_U_F-_R_U_R-_U-_R-_F_R_U-_R_R-_U-%0A</t>
-        </is>
-      </c>
+      <c r="J17" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -1076,38 +878,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D19" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="E19" t="n">
-        <v>67.18000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>44.21</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H19" s="10" t="inlineStr">
         <is>
           <t>solve19</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L' B' R' L U' U' L' R B' L U' B' B' L R' L F' L' F L' U' R L U L' B' B' L D L' R F' L' F R' L D' L' R B' R B R' L U' R' U R R' L' R F' L' F R' L R' L L' R D' L' L L D R' L F' F' L' R U' U' R U' R F' U' B U' F B' R R R' U R' D' U F D U' R' U' R U D' F' D R U U R D R' U U R D' R' R' R' U' L' U R R U' L U R'</t>
-        </is>
-      </c>
-      <c r="J19" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L-_D_B-_R2_B2_R2_D-_U-_B2_D_R2_B2_D_L2_F_L-_U-_L-_D-_R2_B_%0A&amp;alg=_L-_B-_R-_L_U-_U-_L-_R_B-_L_U-_B-_B-_L_R-_L_F-_L-_F_L-_U-_R_L_U_L-_B-_B-_L_D_L-_R_F-_L-_F_R-_L_D-_L-_R_B-_R_B_R-_L_U-_R-_U_R_R-_L-_R_F-_L-_F_R-_L_R-_L_L-_R_D-_L-_L_L_D_R-_L_F-_F-_L-_R_U-_U-_R_U-_R_F-_U-_B_U-_F_B-_R_R_R-_U_R-_D-_U_F_D_U-_R-_U-_R_U_D-_F-_D_R_U_U_R_D_R-_U_U_R_D-_R-_R-_R-_U-_L-_U_R_R_U-_L_U_R-%0A</t>
-        </is>
-      </c>
+      <c r="J19" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -1121,16 +897,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.75</v>
+        <v>54.34</v>
       </c>
       <c r="D20" t="n">
-        <v>36.04</v>
+        <v>22.19</v>
       </c>
       <c r="E20" t="n">
-        <v>38.79</v>
+        <v>76.53</v>
       </c>
       <c r="F20" t="n">
-        <v>27.3</v>
+        <v>54</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1144,12 +920,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> D L' R F' L F R' L D' L' L F' L' F B' U F U' F' B D' R' L F' R F L' R U' R' D U R' L F L F' L' R U L' U' L' R B' R' B R' L U' R U L' R B R' L U L' R B R' L U D U U R D' R' U R D R' U D' D U' R' U U R' D R U R' U D' R R D' U R R' U D R U' R' D' R U R' F' R U R' U' R' F R U' R R' U'</t>
+          <t xml:space="preserve"> R' L' U2 D L B U2 R F L' B2 U' B2 L2 F2 U' L2 F2 D' F2 D U D L' U' D F F D' U L' D' D' R L' B' R' B R' L U' R U B' R' L F' R' L D' R' L B' B' L' R D' R L' F' R L' U' U' B R' R' F</t>
         </is>
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
-          <t>https://alg.cubing.net/?setup=L-_D2_F2_D2_L-_B2_D2_R-_B2_F2_R2_D-_B2_U2_B_D-_L_F_L-_B2_%0A&amp;alg=_D_L-_R_F-_L_F_R-_L_D-_L-_L_F-_L-_F_B-_U_F_U-_F-_B_D-_R-_L_F-_R_F_L-_R_U-_R-_D_U_R-_L_F_L_F-_L-_R_U_L-_U-_L-_R_B-_R-_B_R-_L_U-_R_U_L-_R_B_R-_L_U_L-_R_B_R-_L_U_D_U_U_R_D-_R-_U_R_D_R-_U_D-_D_U-_R-_U_U_R-_D_R_U_R-_U_D-_R_R_D-_U_R_R-_U_D_R_U-_R-_D-_R_U_R-_F-_R_U_R-_U-_R-_F_R_U-_R_R-_U-%0A</t>
+          <t>https://alg.cubing.net/?setup=L-_D2_F2_D2_L-_B2_D2_R-_B2_F2_R2_D-_B2_U2_B_D-_L_F_L-_B2_%0A&amp;alg=_R-_L-_U2_D_L_B_U2_R_F_L-_B2_U-_B2_L2_F2_U-_L2_F2_D-_F2_D_U_D_L-_U-_D_F_F_D-_U_L-_D-_D-_R_L-_B-_R-_B_R-_L_U-_R_%2F%2Fmistake_from_here%0AU_B-_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_R_D-_R_L-_F-_R_L-_U-_U-_B_R-_R-_F_%0A</t>
         </is>
       </c>
     </row>
@@ -1164,38 +940,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D21" t="n">
-        <v>29.46</v>
-      </c>
-      <c r="E21" t="n">
-        <v>31.35</v>
-      </c>
-      <c r="F21" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H21" s="10" t="inlineStr">
         <is>
           <t>solve21</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' D B U' B' U D' R U R' F' B L' U' R' L F L F' L' R U B' F U' R' L F R' L D' D' L' R F L' R U D' L' R F F R' L D' L' R F' L' F R' L D' L D R' L R' L D L' R F' F' R' L D R' L R' L D L' U L D' L' U' L D' U R' D R U' R' D' R D D R U U R D' R' U R R' U R D R' R' D'</t>
-        </is>
-      </c>
-      <c r="J21" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D_R2_U_B2_D-_R2_D_L2_F2_D_B2_L2_F_L-_D_R2_B_R2_U2_R-_U2%0A&amp;alg=_U-_D_B_U-_B-_U_D-_R_U_R-_F-_B_L-_U-_R-_L_F_L_F-_L-_R_U_B-_F_U-_R-_L_F_R-_L_D-_D-_L-_R_F_L-_R_U_D-_L-_R_F_F_R-_L_D-_L-_R_F-_L-_F_R-_L_D-_L_D_R-_L_R-_L_D_L-_R_F-_F-_R-_L_D_R-_L_R-_L_D_L-_U_L_D-_L-_U-_L_D-_U_R-_D_R_U-_R-_D-_R_D_D_R_U_U_R_D-_R-_U_R_R-_U_R_D_R-_R-_D-%0A</t>
-        </is>
-      </c>
+      <c r="J21" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -1208,38 +958,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D22" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="E22" t="n">
-        <v>49.28</v>
-      </c>
-      <c r="F22" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H22" s="10" t="inlineStr">
         <is>
           <t>solve22</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' L' D U' F U' U' F' U D' L U' D' F' U D' L U' L' D U' F U D L' L' F' D U' F F D' U L' L' F L L R' B' B F' R D' U F' F' D' U D' U D' U R R D U' D' U D' R' L F L' F' L' R U L U' D L F' R' F L' U' R R R' U R D' U U D' L' U' L U D' U D' R' U D' L' L' U' R' U L' L' U' R D U R D' R' U U R' D R U U R' D' R R D R' R' R' D' R U U R' D R U U R R U R' F' R U R' U' R' F R R U' R' U' R' R' F R R D U'</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B-_R2_F-_R_F-_B_U_L-_F-_R2_B2_R-_B2_L_U2_R_U2_L_F2_R2_%0A&amp;alg=_U-_L-_D_U-_F_U-_U-_F-_U_D-_L_U-_D-_F-_U_D-_L_U-_L-_D_U-_F_U_D_L-_L-_F-_D_U-_F_F_D-_U_L-_L-_F_L_L_R-_B-_B_F-_R_D-_U_F-_F-_D-_U_D-_U_D-_U_R_R_D_U-_D-_U_D-_R-_L_F_L-_F-_L-_R_U_L_U-_D_L_F-_R-_F_L-_U-_R_R_R-_U_R_D-_U_U_D-_L-_U-_L_U_D-_U_D-_R-_U_D-_L-_L-_U-_R-_U_L-_L-_U-_R_D_U_R_D-_R-_U_U_R-_D_R_U_U_R-_D-_R_R_D_R-_R-_R-_D-_R_U_U_R-_D_R_U_U_R_R_U_R-_F-_R_U_R-_U-_R-_F_R_R_U-_R-_U-_R-_R-_F_R_R_D_U-%0A</t>
-        </is>
-      </c>
+      <c r="J22" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -1253,16 +977,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.14</v>
+        <v>7.55</v>
       </c>
       <c r="D23" t="n">
-        <v>45.79</v>
+        <v>22.09</v>
       </c>
       <c r="E23" t="n">
-        <v>46.93</v>
+        <v>29.64</v>
       </c>
       <c r="F23" t="n">
-        <v>38.41</v>
+        <v>19</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1276,12 +1000,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L U F B' U U F' B L' L' U' L' F R' F B' D F F D' B F' R F R' L R' L D' L' R F' F' R' L D' R' L R' L U R D U' B' U U B D' U R' U D R' L R' L D' R D R' L R' L U' R' D' U L' R B R' B' R' L R' L F R F' L' R D U' B' U D' R U' R' D U' B U D' U R D R' U U R D' R' U U D' R' D R U R' D' R U' D U L U' R R U L' U' R R D F' B' R R' F R B R' D' R U R' F' R U R' U' R' F R U' R R' U' F' R' F R R D</t>
+          <t xml:space="preserve"> D U D L U' D F' F' U D' L U' D' D' R L' B R' B' R' L R' L F R F' R L' U' D B' U D' R U' R' U' D B U2 D' U R U' D B' U U B U D' R' U U' D R' U D' F F U' D R' U D' R R U' R R</t>
         </is>
       </c>
       <c r="J23" s="8" t="inlineStr">
         <is>
-          <t>https://alg.cubing.net/?setup=B_D2_F2_L_R_D2_L_F2_R_B2_F2_L_D-_F2_U2_L-_F2_U-_F2_%0A&amp;alg=_L_U_F_B-_U_U_F-_B_L-_L-_U-_L-_F_R-_F_B-_D_F_F_D-_B_F-_R_F_R-_L_R-_L_D-_L-_R_F-_F-_R-_L_D-_R-_L_R-_L_U_R_D_U-_B-_U_U_B_D-_U_R-_U_D_R-_L_R-_L_D-_R_D_R-_L_R-_L_U-_R-_D-_U_L-_R_B_R-_B-_R-_L_R-_L_F_R_F-_L-_R_D_U-_B-_U_D-_R_U-_R-_D_U-_B_U_D-_U_R_D_R-_U_U_R_D-_R-_U_U_D-_R-_D_R_U_R-_D-_R_U-_D_U_L_U-_R_R_U_L-_U-_R_R_D_F-_B-_R_R-_F_R_B_R-_D-_R_U_R-_F-_R_U_R-_U-_R-_F_R_U-_R_R-_U-_F-_R-_F_R_R_D%0A</t>
+          <t>https://alg.cubing.net/?setup=B_D2_F2_L_R_D2_L_F2_R_B2_F2_L_D-_F2_U2_L-_F2_U-_F2_%0A&amp;alg=_D_U_D_L_U-_D_F-_F-_U_D-_L_U-_D-_D-_R_L-_B_R-_B-_R-_L_R-_L_F_R_F-_R_L-_U-_D_B-_U_D-_R_U-_R-_U-_D_B_U2_D-_U_R_U-_D_B-_U_U_B_U_D-_R-_U_U-_D_R-_U_D-_F_F_U-_D_R-_U_D-_%2F%2Fmistake_from_here%0AR_R_U-_R_R_%0A</t>
         </is>
       </c>
     </row>
@@ -1296,38 +1020,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D24" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="E24" t="n">
-        <v>52.38</v>
-      </c>
-      <c r="F24" t="n">
-        <v>32.99</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H24" s="10" t="inlineStr">
         <is>
           <t>solve24</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U L' R B R' L U L' R B R' L L F R' F B' D F D' B F' R F F L' U' R' U R' L F' R F L' U R D U' B' U U B U D' R' U D L' R F F R' L D U' D B' U D' R U' R' D U' B U U D' R U F' B U' U' F B' R R U' R' D' R U U R D' R' U U R D R' R' D U' L' U R U' L U R' D' U R' D R U' R' D' R D R' F' R B B R' F R B B</t>
-        </is>
-      </c>
-      <c r="J24" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U-_F2_L2_F-_R2_B-_R2_D2_B2_R2_U2_F_R2_U-_B_L2_U_L2_F-_R_D2_%0A&amp;alg=_U_L-_R_B_R-_L_U_L-_R_B_R-_L_L_F_R-_F_B-_D_F_D-_B_F-_R_F_F_L-_U-_R-_U_R-_L_F-_R_F_L-_U_R_D_U-_B-_U_U_B_U_D-_R-_U_D_L-_R_F_F_R-_L_D_U-_D_B-_U_D-_R_U-_R-_D_U-_B_U_U_D-_R_U_F-_B_U-_U-_F_B-_R_R_U-_R-_D-_R_U_U_R_D-_R-_U_U_R_D_R-_R-_D_U-_L-_U_R_U-_L_U_R-_D-_U_R-_D_R_U-_R-_D-_R_D_R-_F-_R_B_B_R-_F_R_B_B%0A</t>
-        </is>
-      </c>
+      <c r="J24" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -1340,38 +1038,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D25" t="n">
-        <v>35.43</v>
-      </c>
-      <c r="E25" t="n">
-        <v>39.89</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H25" s="10" t="inlineStr">
         <is>
           <t>solve25</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' U F D' U' F' D U' R U L' F' L L D' U B' B' D U' F L D R' L F' R F L' R U' R' U D' R R U' F' B U' U' B' F R R R' U R' R D U' B' U' B U D' R' U R R U R' L D' R' L B' R' L U' U' L' B' R L' R D' L' R F' F' U' R R R' U' L' U R R U' L R' U R D' R' R' D R R U' R' R' D' R R D R' R' U R L' U' R' U L' U' R U L' L' D B R U R' U U' R U' R' L' U' U' L U L' U L B' D'</t>
-        </is>
-      </c>
-      <c r="J25" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U-_B2_F2_U_L2_R2_F2_D-_B2_R2_U-_L_D_L_B_D_F-_R_U_F2%0A&amp;alg=_R-_U_F_D-_U-_F-_D_U-_R_U_L-_F-_L_L_D-_U_B-_B-_D_U-_F_L_D_R-_L_F-_R_F_L-_R_U-_R-_U_D-_R_R_U-_F-_B_U-_U-_B-_F_R_R_R-_U_R-_R_D_U-_B-_U-_B_U_D-_R-_U_R_R_U_R-_L_D-_R-_L_B-_R-_L_U-_U-_L-_B-_R_L-_R_D-_L-_R_F-_F-_U-_R_R_R-_U-_L-_U_R_R_U-_L_R-_U_R_D-_R-_R-_D_R_R_U-_R-_R-_D-_R_R_D_R-_R-_U_R_L-_U-_R-_U_L-_U-_R_U_L-_L-_D_B_R_U_R-_U_U-_R_U-_R-_L-_U-_U-_L_U_L-_U_L_B-_D-%0A</t>
-        </is>
-      </c>
+      <c r="J25" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1384,38 +1056,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D26" t="n">
-        <v>45.13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>45.77</v>
-      </c>
-      <c r="F26" t="n">
-        <v>30.39</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H26" s="10" t="inlineStr">
         <is>
           <t>solve26</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' L F L' F' L' R U L U' L L U' D F' U F D' U L' U' L' U' R U D' F' U U F D U' R' U' R' L F' L' B' F U F U' F' B B' B R U L' R F R' L U' L' R F' R' L B' B' R' L R' F R F' L' R U R' U' R B' B' B' R' L F' R' L D' R' L B' B' L' R D' L' R F' L' R U' U' B D B' R R' F' R B R' F D' R R D L D' R R D L' D' R' U' R' D' R U R' D R R D B L' U' L U' L' U U L R R' U U R U' U' R' B' D'</t>
-        </is>
-      </c>
-      <c r="J26" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L-_U_L2_D-_L2_F2_D2_B2_D_F2_D_R_B-_U_L-_F-_U_B-_U_F-_%0A&amp;alg=_R-_L_F_L-_F-_L-_R_U_L_U-_L_L_U-_D_F-_U_F_D-_U_L-_U-_L-_U-_R_U_D-_F-_U_U_F_D_U-_R-_U-_R-_L_F-_L-_B-_F_U_F_U-_F-_B_B-_B_R_U_L-_R_F_R-_L_U-_L-_R_F-_R-_L_B-_B-_R-_L_R-_F_R_F-_L-_R_U_R-_U-_R_B-_B-_B-_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_R_D-_L-_R_F-_L-_R_U-_U-_B_D_B-_R_R-_F-_R_B_R-_F_D-_R_R_D_L_D-_R_R_D_L-_D-_R-_U-_R-_D-_R_U_R-_D_R_R_D_B_L-_U-_L_U-_L-_U_U_L_R_R-_U_U_R_U-_U-_R-_B-_D-%0A</t>
-        </is>
-      </c>
+      <c r="J26" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -1447,16 +1093,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.19</v>
+        <v>6.6</v>
       </c>
       <c r="D28" t="n">
-        <v>45.75</v>
+        <v>49.39</v>
       </c>
       <c r="E28" t="n">
-        <v>49.94</v>
+        <v>55.98</v>
       </c>
       <c r="F28" t="n">
-        <v>39.66</v>
+        <v>44</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1470,12 +1116,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L F R' F B' D D F' B R' F' L' U' R D U' B' U U B U D' R' U' U U U L' D U' U' D R U' R' U' D U' D L L' R F R' L D L' R F R' L D D' D' R' L R' L U' R R U R' L R' L D' R R D D' D' U U R D' U F' U F U' D R' U D U R' D R U' R' D' R D' R' R' F R'</t>
+          <t xml:space="preserve"> L F R' F B' D D F' B R' F' L' U F' B D F' F' D' F B' L F' F' L' U' U' R R U' L' R B R R B' R' L U R R R R U L F' L F' B D' F D B' F L' L' U R' F' R F' B U' F F U F B' R' F' R U' R' U' R' R' F' B U U F B' U R U R U' D B' U U B U D' R' U U' R' R' D' R U U R' D R U U R U L U' R' U L U' R U L' L' R R U' R R U'</t>
         </is>
       </c>
       <c r="J28" s="8" t="inlineStr">
         <is>
-          <t>https://alg.cubing.net/?setup=D-_B2_R2_B-_U2_B-_D2_U2_F-_L2_B-_R2_U2_L_B_F2_D-_R2_D-_B-_R2_%0A&amp;alg=_L_F_R-_F_B-_D_D_F-_B_R-_F-_L-_U-_R_D_U-_B-_U_U_B_U_D-_R-_U-_U_U_U_L-_D_U-_U-_D_R_U-_R-_U-_D_U-_D_L_L-_R_F_R-_L_D_L-_R_F_R-_L_D_D-_D-_R-_L_R-_L_U-_R_R_U_R-_L_R-_L_D-_R_R_D_D-_D-_U_U_R_D-_U_F-_U_F_U-_D_R-_U_D_U_R-_D_R_U-_R-_D-_R_D-_R-_R-_F_R-%0A</t>
+          <t>https://alg.cubing.net/?setup=D-_B2_R2_B-_U2_B-_D2_U2_F-_L2_B-_R2_U2_L_B_F2_D-_R2_D-_B-_R2_%0A&amp;alg=_L_F_R-_F_B-_D_D_F-_B_R-_F-_L-_U_F-_B_D_F-_F-_D-_F_B-_L_F-_F-_L-_U-_U-_R_R_U-_L-_R_B_R_R_B-_R-_L_U_R_R_R_R_U_L_F-_L_F-_B_D-_F_D_B-_F_L-_L-_U_R-_F-_R_F-_B_U-_F_F_U_F_B-_R-_F-_R_U-_R-_U-_R-_R-_F-_B_U_U_F_B-_U_R_U_R_U-_D_B-_U_U_B_U_D-_R-_U_U-_R-_R-_D-_R_U_U_R-_D_R_U_U_R_U_L_U-_R-_U_L_U-_R_U_L-_L-_%2F%2Fmistake_from_here%0AR_R_U-_R_R_U-_%0A</t>
         </is>
       </c>
     </row>
@@ -1490,38 +1136,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="D29" t="n">
-        <v>38.14</v>
-      </c>
-      <c r="E29" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="F29" t="n">
-        <v>32.58</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H29" s="10" t="inlineStr">
         <is>
           <t>solve29</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' L F' R F L' U' R R' U R' L R' L D' L' R F' F' R' L D' R' L R' L D' F D U' R' R' U D' F D D' L' R F' R' L D' L' R F' R' L U' R B R' L U' U' L' R B' B B R' U R' L R' L D L' R F' F' R' L D R' L R' L U U R D U' B' U B U D' R' U R' L F' R' L D' R' L B' B' L' R D' L' R F' L' R U' U' R U R' D R U' R' D' R R U' R' F</t>
-        </is>
-      </c>
-      <c r="J29" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U_F2_B-_D_R-_D2_L_F_U2_B2_U-_F2_U2_B2_L2_U-_B2_R2_%0A&amp;alg=_R-_L_F-_R_F_L-_U-_R_R-_U_R-_L_R-_L_D-_L-_R_F-_F-_R-_L_D-_R-_L_R-_L_D-_F_D_U-_R-_R-_U_D-_F_D_D-_L-_R_F-_R-_L_D-_L-_R_F-_R-_L_U-_R_B_R-_L_U-_U-_L-_R_B-_B_B_R-_U_R-_L_R-_L_D_L-_R_F-_F-_R-_L_D_R-_L_R-_L_U_U_R_D_U-_B-_U_B_U_D-_R-_U_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_R_D-_L-_R_F-_L-_R_U-_U-_R_U_R-_D_R_U-_R-_D-_R_R_U-_R-_F%0A</t>
-        </is>
-      </c>
+      <c r="J29" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -1534,38 +1154,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="D30" t="n">
-        <v>45.09</v>
-      </c>
-      <c r="E30" t="n">
-        <v>47.37</v>
-      </c>
-      <c r="F30" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H30" s="10" t="inlineStr">
         <is>
           <t>solve30</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' U' R' L F' F' L' R R U R' L' L' B' F U U B F' R R' U L' B' R B' R' L U' U' U D' F U' F' D U' U R' U' R U D' F' U' F D U' R' U U D' U' F D U' R' U R U D' F' D B' L R' F' L R' D' L R' B' B' R L' D' R L' F' R L' U' U' B U' R' U R' F R R U' F R U R' U' F R U' R' U' R U R' F' F R' R R U' R U' R' U R' F R R</t>
-        </is>
-      </c>
-      <c r="J30" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D2_L2_F2_L2_B_L2_D2_B_U2_F_L2_D-_L_D_F_U-_F2_R-_U2_F_%0A&amp;alg=_U-_U-_R-_L_F-_F-_L-_R_R_U_R-_L-_L-_B-_F_U_U_B_F-_R_R-_U_L-_B-_R_B-_R-_L_U-_U-_U_D-_F_U-_F-_D_U-_U_R-_U-_R_U_D-_F-_U-_F_D_U-_R-_U_U_D-_U-_F_D_U-_R-_U_R_U_D-_F-_D_B-_L_R-_F-_L_R-_D-_L_R-_B-_B-_R_L-_D-_R_L-_F-_R_L-_U-_U-_B_U-_R-_U_R-_F_R_R_U-_F_R_U_R-_U-_F_R_U-_R-_U-_R_U_R-_F-_F_R-_R_R_U-_R_U-_R-_U_R-_F_R_R%0A</t>
-        </is>
-      </c>
+      <c r="J30" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -1578,38 +1172,12 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="D31" t="n">
-        <v>47.54</v>
-      </c>
-      <c r="E31" t="n">
-        <v>49.58</v>
-      </c>
-      <c r="F31" t="n">
-        <v>39.56</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="H31" s="10" t="inlineStr">
         <is>
           <t>solve31</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R L' B L' B' L R' U L U' U L U R L' B' L' B L R' U' U' D U' R R U L R' F' R R F L' R D' F B' F D' D F' B R' R F' U L' U D' B U' B' U' D L R L' R B L R' U U R L' B L R' R' R R L' B L R' U U R L' B R' L R' R U R' F' R U R' U' R' F R R U' R' U' F R' R R U' R' F R R U' U' U'</t>
-        </is>
-      </c>
-      <c r="J31" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=F2_D2_F_B-_D-_F2_L_U2_B2_L2_F-_B2_U2_D2_R2_F-_L2_D2_F_%0A&amp;alg=_R_L-_B_L-_B-_L_R-_U_L_U-_U_L_U_R_L-_B-_L-_B_L_R-_U-_U-_D_U-_R_R_U_L_R-_F-_R_R_F_L-_R_D-_F_B-_F_D-_D_F-_B_R-_R_F-_U_L-_U_D-_B_U-_B-_U-_D_L_R_L-_R_B_L_R-_U_U_R_L-_B_L_R-_R-_R_R_L-_B_L_R-_U_U_R_L-_B_R-_L_R-_R_U_R-_F-_R_U_R-_U-_R-_F_R_R_U-_R-_U-_F_R-_R_R_U-_R-_F_R_R_U-_U-_U-%0A</t>
-        </is>
-      </c>
+      <c r="J31" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -1640,12 +1208,38 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="D33" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="E33" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="H33" s="10" t="inlineStr">
         <is>
           <t>solve33</t>
         </is>
       </c>
-      <c r="J33" s="8" t="n"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F' B L L U' R' L F L F' R L' U L F B' R L' B' L B R' R' L L F' L' F L' R L U' D F' U F U D' L' U' F B' R R U' R L' B R' B' R' L U R' R U' R L' B R B' R' L U R' R' R' F' B R' F' U D' F U F' U' D R U' R' F R U' U' L' U D' B U' B' U' D L U' U R' F' R F' B U' F F U B' F R' F' R U' R R U' R R</t>
+        </is>
+      </c>
+      <c r="J33" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=R2_D2_R-_U2_D_F-_L_D_F2_U_R2_F2_U_B2_R2_D2_R2_B_R2_%0A&amp;alg=_F-_B_L_L_U-_R-_L_F_L_F-_R_L-_U_L_F_B-_R_L-_B-_L_B_R-_R-_L_L_F-_L-_F_L-_R_L_U-_D_F-_U_F_U_D-_L-_U-_F_B-_R_R_U-_R_L-_B_R-_B-_R-_L_U_R-_R_U-_R_L-_B_R_B-_R-_L_U_R-_R-_R-_F-_B_R-_F-_U_D-_F_U_F-_U-_D_R_U-_R-_F_R_U-_U-_L-_U_D-_B_U-_B-_U-_D_L_U-_%2F%2Fmistake_from_here%0AU_R-_F-_R_F-_B_U-_F_F_U_B-_F_R-_F-_R_U-_R_R_U-_R_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1694,12 +1288,38 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D36" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="E36" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>23</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="H36" s="10" t="inlineStr">
         <is>
           <t>solve36</t>
         </is>
       </c>
-      <c r="J36" s="8" t="n"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> U' U' R L' B' B' R' L U' R' F F R F B' D' F F D F' B L D' L' D R L' F' L F R' L U L' U D' B B' B U' B' U' D L' U' L U R' L F' L' F R U L U' D F' U F U D' L' U' U' R R U' R' R' U' R R</t>
+        </is>
+      </c>
+      <c r="J36" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=R_D_B2_R2_B2_U2_L2_D_F2_D-_F2_U_B_L2_D-_U_L-_B-_L_B-_F_%0A&amp;alg=_U-_U-_R_L-_B-_B-_R-_L_U-_R-_F_F_R_F_B-_D-_F_F_D_F-_B_L_D-_L-_D_R_L-_F-_L_F_R-_L_U_L-_U_D-_B_B-_B_U-_B-_U-_D_L-_U-_L_U_R-_L_F-_L-_F_R_U_L_U-_D_F-_U_F_U_D-_L-_U-_U-_%2F%2Fmistake_from_here%0AR_R_U-_R-_R-_U-_R_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -1784,12 +1404,38 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D41" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="E41" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="F41" t="n">
+        <v>35</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="H41" s="10" t="inlineStr">
         <is>
           <t>solve41</t>
         </is>
       </c>
-      <c r="J41" s="8" t="n"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> U' R' U D' U D' L U L' U D' U D' R R U' R' U D' F U F' U' D R' L F' R' F R L' U' R U U' U' L' R B' B' R' L U' U' R L' B' B' R' L F B' D F D' F' B R F' R' U' R' U D' F U' F' D U' R U U U' U' L U' D F' U' F U D' L' U' R' R' D' R U' R' D R U R R U R' D R U R' D' R U U R' D R R U' R R</t>
+        </is>
+      </c>
+      <c r="J41" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=U-_F2_R_F2_L-_U2_L-_D2_L-_F2_R-_U-_L-_B_U2_F_D-_U_F%0A&amp;alg=_U-_R-_U_D-_U_D-_L_U_L-_U_D-_U_D-_R_R_U-_R-_U_D-_F_U_F-_U-_D_R-_L_F-_R-_F_R_L-_U-_R_U_U-_U-_L-_R_B-_B-_R-_L_U-_U-_R_L-_B-_B-_R-_L_F_B-_D_F_D-_F-_B_R_F-_R-_U-_R-_U_D-_F_U-_F-_D_U-_R_U_U_U-_U-_L_U-_D_F-_U-_F_U_D-_L-_U-_R-_R-_D-_R_U-_R-_D_R_U_R_R_U_R-_D_R_U_R-_D-_R_U_U_R-_%2F%2Fmistake_from_here%0AD_R_R_U-_R_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -1871,7 +1517,7 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H46" s="10" t="inlineStr">
@@ -1889,7 +1535,7 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H47" s="10" t="inlineStr">
@@ -1907,7 +1553,7 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H48" s="10" t="inlineStr">
@@ -1925,7 +1571,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H49" s="10" t="inlineStr">
@@ -1943,7 +1589,7 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H50" s="10" t="inlineStr">
@@ -1961,7 +1607,7 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H51" s="10" t="inlineStr">
@@ -1979,7 +1625,7 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H52" s="10" t="inlineStr">
@@ -1997,7 +1643,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H53" s="10" t="inlineStr">
@@ -2015,7 +1661,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H54" s="10" t="inlineStr">
@@ -2033,7 +1679,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H55" s="10" t="inlineStr">
@@ -2051,7 +1697,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H56" s="10" t="inlineStr">
@@ -2069,7 +1715,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H57" s="10" t="inlineStr">
@@ -2087,7 +1733,7 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H58" s="10" t="inlineStr">
@@ -2105,23 +1751,6 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D59" t="n">
-        <v>50.27</v>
-      </c>
-      <c r="E59" t="n">
-        <v>56.61</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2130,16 +1759,7 @@
           <t>solve59</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' L F' R' F L' R U' R U R' D B U' U' U B' D' R U B F' U' F U F B' R' F' R U' R' U F D' U U F' D U' R U' L' U L' L' F B' U U B F' U' L B F' U' F U F B' R' F' R R' L F' L' B F' D D F B' L' F L' R R' L F' L B F' D' D' F B' L F L' R R' L F' L B F' D' D' F L B' F L' R D L' D U' F U F' U D' L U' D' U R R U' R' D' R U R' D R' U' R' U' R R</t>
-        </is>
-      </c>
-      <c r="J59" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B-_R2_F_R2_D2_F_L2_F2_U2_F-_U2_L_D-_F2_U-_B-_R-_D-_L2_B2_%0A&amp;alg=_R-_L_F-_R-_F_L-_R_U-_R_U_R-_D_B_U-_U-_U_B-_D-_R_U_B_F-_U-_F_U_F_B-_R-_F-_R_U-_R-_U_F_D-_U_U_F-_D_U-_R_U-_L-_U_L-_L-_F_B-_U_U_B_F-_U-_L_B_F-_U-_F_U_F_B-_%2F%2Fmistake_from_here%0AR-_F-_R_R-_L_F-_L-_B_F-_D_D_F_B-_L-_F_L-_R_R-_L_F-_L_B_F-_D-_D-_F_B-_L_F_L-_R_R-_L_F-_L_B_F-_D-_D-_F_L_B-_F_L-_R_D_L-_D_U-_F_U_F-_U_D-_L_U-_D-_U_R_R_U-_R-_D-_R_U_R-_D_R-_U-_R-_U-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J59" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -2149,7 +1769,7 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H60" s="10" t="inlineStr">
@@ -2167,7 +1787,7 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H61" s="10" t="inlineStr">
@@ -2185,7 +1805,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H62" s="10" t="inlineStr">
@@ -2203,7 +1823,7 @@
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H63" s="10" t="inlineStr">
@@ -2221,7 +1841,7 @@
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H64" s="10" t="inlineStr">
@@ -2239,7 +1859,7 @@
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H65" s="10" t="inlineStr">
@@ -2257,7 +1877,7 @@
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H66" s="10" t="inlineStr">
@@ -2275,23 +1895,6 @@
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D67" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E67" t="n">
-        <v>55.06</v>
-      </c>
-      <c r="F67" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2300,16 +1903,7 @@
           <t>solve67</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L U D' B' U B D U' L' U' U' R U' L' R B R' B' R' L U R U U' R' U F D' U F' D U' R R' R' F' R U R' U F D' U' F' D U' F R B' B'</t>
-        </is>
-      </c>
-      <c r="J67" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U2_F_L2_R2_U2_F-_R2_F_D2_B2_F-_L-_U_B2_L_U2_B_U-_F2_L-_F%0A&amp;alg=_L_U_D-_B-_U_B_D_U-_L-_U-_U-_R_U-_L-_R_B_R-_B-_R-_L_U_R_U_U-_R-_U_F_D-_U_F-_D_U-_R_R-_R-_F-_R_U_R-_U_F_D-_U-_F-_D_%2F%2Fmistake_from_here%0AU-_F_R_B-_B-_%0A</t>
-        </is>
-      </c>
+      <c r="J67" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="68">
       <c r="A68" s="3" t="inlineStr">
@@ -2319,7 +1913,7 @@
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H68" s="10" t="inlineStr">
@@ -2337,23 +1931,6 @@
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="D69" t="n">
-        <v>73.79000000000001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>89.53</v>
-      </c>
-      <c r="F69" t="n">
-        <v>46.82</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2362,16 +1939,7 @@
           <t>solve69</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L' U L U' R' L F L' U U' F' R L' U L' L' F B' U U B F' U' L U' R' F F R F B' D' F F D B F' R' F F R F B' D' F F D B F' U D R' L F' R' F L' R U' R U D' R' U' R U R' L R' L D' R' D L R' L R' L R' L D' L' R F' F' R' L D' R' L R' L R R U' R R</t>
-        </is>
-      </c>
-      <c r="J69" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R2_U2_F2_R2_F_D2_B-_F2_U2_F2_D-_R-_F-_D-_L2_B_R2_F2_D-_L-_%0A&amp;alg=_L-_U_L_U-_R-_L_F_L-_U_U-_F-_R_L-_U_L-_L-_F_B-_U_U_B_F-_U-_L_U-_R-_F_F_R_F_B-_D-_F_F_D_B_F-_R-_F_F_R_F_B-_D-_F_F_D_B_F-_U_D_R-_L_F-_R-_F_L-_R_U-_R_U_D-_R-_U-_R_U_R-_L_R-_L_D-_R-_D_L_R-_L_R-_L_R-_L_D-_L-_R_F-_F-_R-_L_D-_R-_L_R-_%2F%2Fmistake_from_here%0AL_R_R_U-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J69" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -2381,7 +1949,7 @@
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H70" s="10" t="inlineStr">
@@ -2399,7 +1967,7 @@
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H71" s="10" t="inlineStr">
@@ -2417,23 +1985,6 @@
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="D72" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>39.69</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2442,16 +1993,7 @@
           <t>solve72</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' B D L' D L' F' F' B R D R' D' D' B' D B F D F' D' L' D' L L D D L' D' L D L' F D F' D' R F' R' F D L' D' L' F L F' D L D R R B' B' R' F' R B' B' R' F R'</t>
-        </is>
-      </c>
-      <c r="J72" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B-_R_D2_F-_U-_L2_F_L_R2_B2_D2_B-_R2_F-_U2_D2_F-_L2_U-_%0A&amp;alg=_R-_B_D_L-_D_L-_F-_F-_B_R_D_R-_D-_D-_B-_D_B_F_D_F-_D-_L-_D-_L_L_D_D_L-_D-_L_D_L-_F_D_F-_D-_R_F-_R-_F_D_L-_D-_L-_F_L_F-_D_L_D_R_R_B-_B-_R-_F-_R_B-_B-_R-_F_R-%0A</t>
-        </is>
-      </c>
+      <c r="J72" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -2461,23 +2003,6 @@
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D73" t="n">
-        <v>54.27</v>
-      </c>
-      <c r="E73" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="F73" t="n">
-        <v>49.45</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2486,16 +2011,7 @@
           <t>solve73</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U R' D' R U' R' D R U R D R' U U R D' R' U U' R' U D' F U' F' D U' R U U U L D U' F' F' U D' L U' D' F B' D' F D B F' R' F' R D D R D' L' R F R' F' R' L L' U F B' U U B F' L' L' L' L U' L D' R' L D' R' L B' R' L U' U' L' R B' L' R D' L' R F' F' D R' R' F</t>
-        </is>
-      </c>
-      <c r="J73" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R_F-_D-_B2_R_U-_B-_L-_B2_U2_R2_D_F2_R2_U_R2_B2_U-_D-_F2_L-%0A&amp;alg=_U_R-_D-_R_U-_R-_D_R_U_R_D_R-_U_U_R_D-_R-_U_U-_R-_U_D-_F_U-_F-_D_U-_R_U_U_U_L_D_U-_F-_F-_U_D-_L_U-_D-_F_B-_D-_F_D_B_F-_R-_F-_R_D_D_R_D-_L-_R_F_R-_F-_R-_L_L-_U_F_B-_U_U_B_F-_L-_L-_L-_L_U-_L_D-_R-_L_D-_R-_L_B-_R-_L_U-_U-_L-_R_B-_L-_R_D-_L-_R_F-_F-_%2F%2Fmistake_from_here%0AD_R-_R-_F_%0A</t>
-        </is>
-      </c>
+      <c r="J73" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="74">
       <c r="A74" s="3" t="inlineStr">
@@ -2505,7 +2021,7 @@
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H74" s="10" t="inlineStr">
@@ -2523,23 +2039,6 @@
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="D75" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="E75" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="F75" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2548,16 +2047,7 @@
           <t>solve75</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' L' L' U R' L F' L L F L' R L' R B R B' R' L R' L F R' F' L' R L' U B D' U B' D U' L U' L' L'</t>
-        </is>
-      </c>
-      <c r="J75" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U_B-_U2_R_F_D2_L-_U_F2_L2_B2_R_D2_L_F2_U2_L-_B2_D2_L_%0A&amp;alg=_U-_L-_L-_U_R-_L_F-_L_L_F_L-_R_L-_R_B_R_B-_R-_L_R-_L_%2F%2Fmistake_from_here%0AF_R-_F-_L-_R_L-_U_B_D-_U_B-_D_U-_L_U-_L-_L-_%0A</t>
-        </is>
-      </c>
+      <c r="J75" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="76">
       <c r="A76" s="3" t="inlineStr">
@@ -2567,7 +2057,7 @@
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H76" s="10" t="inlineStr">
@@ -2585,7 +2075,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H77" s="10" t="inlineStr">
@@ -2603,23 +2093,6 @@
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="D78" t="n">
-        <v>48.25</v>
-      </c>
-      <c r="E78" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-1617050201.84</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2628,16 +2101,7 @@
           <t>solve78</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F R U' R' U D' F U F' D U' F' F R U' R' U D' F U F' D U' F' L' L' F' L L D U' F' F' U D' F L L U L U' L' R B L' B' R' L B F' D F' D' F B' L F L' F B' R R U' L' R B R' B' R' L U R' B F' L' R R B' R' U L U L' R B B B R' L R' L R' R' R' L D' R D R' L R' L U' R' U L R' L R' L R' L R B R' L F' R' L D' R' L B' B' L' R D' L' R F' L' R U' U' B' R' U R' D R U' R D' R' U' R D R' U R' D' R R R</t>
-        </is>
-      </c>
-      <c r="J78" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U2_D2_L-_D-_R-_F2_B-_R2_F2_U2_F2_U_L2_F2_U_B2_R2_U_B2_L_U_%0A&amp;alg=_F_R_U-_R-_U_D-_F_U_F-_D_U-_F-_F_R_U-_R-_U_D-_F_U_F-_D_U-_F-_L-_L-_F-_L_L_D_U-_F-_F-_U_D-_F_L_L_U_L_U-_L-_R_B_L-_B-_R-_L_B_F-_D_F-_D-_F_B-_L_F_L-_F_B-_R_R_U-_L-_R_B_R-_B-_R-_L_U_R-_B_F-_L-_R_R_B-_R-_U_L_U_L-_R_B_B_B_R-_L_R-_L_R-_R-_R-_L_D-_R_D_R-_L_R-_L_U-_R-_U_L_R-_L_R-_L_R-_%2F%2Fmistake_from_here%0AL_R_B_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_R_D-_L-_R_F-_L-_R_U-_U-_B-_R-_U_R-_D_R_U-_R_D-_R-_U-_R_D_R-_U_R-_D-_R_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J78" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -2647,7 +2111,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H79" s="10" t="inlineStr">
@@ -2665,23 +2129,6 @@
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="D80" t="n">
-        <v>44.81</v>
-      </c>
-      <c r="E80" t="n">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>28</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2690,16 +2137,7 @@
           <t>solve80</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U B F' D F' F' D' F B' L F' F' L' U' B L R' L F' L' F L' R U' L U L' B' R B' R' L U' U' L' R B' R' R' L F R R F' L' R U R R U' L' R B' L' B R' L R' L F' L F L' R R' F R U R' U F D' U' F' D U' F' R R R</t>
-        </is>
-      </c>
-      <c r="J80" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L-_U-_F2_D_L2_U2_L2_R2_B2_L2_R2_U_R-_F-_D_L_U-_R_B_L-_%0A&amp;alg=_U_B_F-_D_F-_F-_D-_F_B-_L_F-_F-_L-_U-_B_L_R-_L_F-_L-_F_L-_R_U-_L_U_L-_B-_R_B-_R-_L_U-_U-_L-_R_B-_R-_R-_L_F_R_R_F-_L-_R_U_R_R_U-_L-_R_B-_L-_B_R-_L_R-_L_F-_L_F_L-_%2F%2Fmistake_from_here%0AR_R-_F_R_U_R-_U_F_D-_U-_F-_D_U-_F-_R_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J80" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -2709,23 +2147,6 @@
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="D81" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="E81" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="F81" t="n">
-        <v>23</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2734,16 +2155,7 @@
           <t>solve81</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L U D' B' U B D U' L' U' U' R' U D' F U U F' D U' R U' U' R' D U' B U B' U D' R U D' L' D U' F F D' U L' D U' L U L' U D' B U' B' D U' U' U' L' R B' B' R' L R R</t>
-        </is>
-      </c>
-      <c r="J81" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D2_L2_U2_B2_U-_R2_F2_U_B2_U_F2_L-_D2_B-_F_D_L_D-_F2_D-_U2_%0A&amp;alg=_L_U_D-_B-_U_B_D_U-_L-_U-_U-_R-_U_D-_F_U_U_F-_D_U-_R_U-_U-_R-_D_U-_B_U_B-_U_D-_R_U_D-_L-_D_U-_F_F_D-_U_L-_D_U-_L_U_L-_U_D-_B_U-_B-_D_U-_U-_U-_L-_R_B-_B-_R-_%2F%2Fmistake_from_here%0AL_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J81" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -2753,23 +2165,6 @@
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="D82" t="n">
-        <v>47.06</v>
-      </c>
-      <c r="E82" t="n">
-        <v>67.13</v>
-      </c>
-      <c r="F82" t="n">
-        <v>33</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2778,16 +2173,7 @@
           <t>solve82</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> D U' F' U F U D' L' U' L U L U D' B' U B D U' L' U' U' U U L' R B' L' B R' L U' L U' R' U D' U D' L U' L' U B D' U B' U D' R R' L R' F D B' F D' B F' R F' L' R U' R' U R' L F' R F L' R' F R U R' U D' F U' F' D U' F' R R R R U' B F' U' U' F B' R R U R' R' D' U R' D R U' R' D' R D R R</t>
-        </is>
-      </c>
-      <c r="J82" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=F2_D-_L2_F-_B-_R-_D2_F2_L_D_L2_D-_B2_L2_U-_L2_D2_R2_L2_F2_D-_%0A&amp;alg=_D_U-_F-_U_F_U_D-_L-_U-_L_U_L_U_D-_B-_U_B_D_U-_L-_U-_U-_U_U_L-_R_B-_L-_B_R-_L_U-_L_U-_R-_U_D-_U_D-_L_U-_L-_U_B_D-_U_B-_U_D-_R_R-_L_R-_F_D_B-_F_D-_B_F-_R_F-_L-_R_U-_R-_U_R-_L_F-_R_F_L-_R-_F_R_U_R-_U_D-_F_U-_F-_D_U-_F-_R_%2F%2Fmistake_from_here%0AR_R_R_U-_B_F-_U-_U-_F_B-_R_R_U_R-_R-_D-_U_R-_D_R_U-_R-_D-_R_D_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J82" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -2797,23 +2183,6 @@
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D83" t="n">
-        <v>34.69</v>
-      </c>
-      <c r="E83" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="F83" t="n">
-        <v>18</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2822,16 +2191,7 @@
           <t>solve83</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L' U F B' U U B F' L' L' U' L U R' L F' L' R U' U' L' R B R' L U U' U' L D U' F' U' F U D' L' U' R' U' R' U F D' U F' D U' R R L F' L B F' D' F D F B' L' L' R' U' U' R U L L U' R' U L L U R U R' U' D' R U R' D R U' R' U R U' R R</t>
-        </is>
-      </c>
-      <c r="J83" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D2_F_L2_B-_U2_B2_R2_D2_L2_B_U2_F2_R_B_D_L2_R-_U-_F_R_F2_%0A&amp;alg=_L-_U_F_B-_U_U_B_F-_L-_L-_U-_L_U_R-_L_F-_L-_R_U-_U-_L-_R_B_R-_L_U_U-_U-_L_D_U-_F-_U-_F_U_D-_L-_U-_R-_U-_R-_U_F_D-_U_F-_D_U-_R_R_L_F-_L_B_F-_D-_F_D_F_B-_L-_%2F%2Fmistake_from_here%0AL-_R-_U-_U-_R_U_L_L_U-_R-_U_L_L_U_R_U_R-_U-_D-_R_U_R-_D_R_U-_R-_U_R_U-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J83" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -2841,23 +2201,6 @@
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1617053853.65</v>
-      </c>
-      <c r="D84" t="n">
-        <v>39.09</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1617053892.73</v>
-      </c>
-      <c r="F84" t="n">
-        <v>37</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2866,16 +2209,7 @@
           <t>solve84</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' L R' L L D L' D' R' L R' L L U U' L' L U L' U' L U D' L' D U' F F U D' L' L' L D D D' U' R U D' F' F' D U' R U D F U D' L' L' D U' F D' R' F' L F L' R U' L' U L U F D' D U' R' U' R U D' D F' R' U' R' D' R U R' D R R R' U' R' D' R U R' D R R U U R' D R U U R' D' R R D R' U' R D' R' U R R</t>
-        </is>
-      </c>
-      <c r="J84" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B2_L_F2_B_U_B-_R-_L_B2_D-_B2_D-_B2_U_F2_D2_R2_B2_U_R-%0A&amp;alg=_R-_L_R-_L_L_D_L-_D-_R-_L_R-_L_L_U_U-_L-_L_U_L-_U-_L_U_D-_L-_D_U-_F_F_U_D-_L-_L-_L_D_D_D-_U-_R_U_D-_F-_F-_D_U-_R_U_D_F_U_D-_L-_L-_D_U-_F_D-_R-_F-_L_F_L-_R_U-_L-_U_L_U_F_D-_D_U-_R-_U-_R_U_D-_D_F-_R-_U-_R-_D-_R_U_R-_D_R_R_R-_U-_R-_D-_R_U_R-_D_R_R_U_U_R-_D_R_U_U_R-_D-_R_R_D_R-_U-_R_D-_R-_%2F%2Fmistake_from_here%0AU_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J84" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -2885,23 +2219,6 @@
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>1617054640.4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>61.09</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1617054701.49</v>
-      </c>
-      <c r="F85" t="n">
-        <v>55</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2910,16 +2227,7 @@
           <t>solve85</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' R' U D' F U U F' D U' R U' D F B' D F D' F' B R F' R' D' D' F' U D' L U' L' D U' F U D R U' R' D U' B U B' U D' R B R' L F' R' L D' R' L B' B' L' R D' L' R F' L' R U' U' B' R' D L' R F F R' L D F' R' U D' F F D U' R' F D R' L R' L D' R' L B' R' L U' U' L' R B' L' R D' L' R F' F' L' R D' R' D R U R' D' R U R' D R U U R' D' R R D R' U D R D' R' U U R D R' D' U R D' R' R U R' D' R U' R' D R' B' R' B R F F R' B' R B F F R R</t>
-        </is>
-      </c>
-      <c r="J85" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D2_F2_D2_B2_U2_R2_F_U2_L2_F_D2_L_B-_L2_B_F2_D_B_R_D2%0A&amp;alg=_U-_R-_U_D-_F_U_U_F-_D_U-_R_U-_D_F_B-_D_F_D-_F-_B_R_F-_R-_D-_D-_F-_U_D-_L_U-_L-_D_U-_F_U_D_R_U-_R-_D_U-_B_U_B-_U_D-_R_B_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_R_D-_L-_R_F-_L-_R_U-_U-_B-_R-_D_L-_R_F_F_R-_L_D_F-_R-_U_D-_F_F_D_U-_R-_F_D_R-_L_R-_L_D-_R-_L_B-_R-_L_U-_U-_L-_R_B-_L-_R_D-_L-_R_F-_F-_L-_R_D-_R-_D_R_U_R-_D-_R_U_R-_D_R_U_U_R-_D-_R_R_D_R-_U_D_R_D-_R-_U_U_R_D_R-_D-_U_R_D-_R-_R_U_R-_D-_R_U-_R-_D_R-_B-_R-_B_R_F_F_R-_B-_R_B_F_F_%2F%2Fmistake_from_here%0AR_R_%0A</t>
-        </is>
-      </c>
+      <c r="J85" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="86">
       <c r="A86" s="3" t="inlineStr">
@@ -2929,23 +2237,6 @@
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1617055218.57</v>
-      </c>
-      <c r="D86" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1617055242.87</v>
-      </c>
-      <c r="F86" t="n">
-        <v>20</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2954,16 +2245,7 @@
           <t>solve86</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' R B R' R B' R' B F' U B U' F B' R B' R' U D D U' R' D U' B B D' U R' U D' D' R U' R' U D' F U F' D U' R' F R F' B U' U' F B' R F' R U' U' L U' D F' U' F D' U L' U' U D' F U' D R' U' R D' U F' D R R</t>
-        </is>
-      </c>
-      <c r="J86" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R2_U-_B2_F2_L2_U-_R2_D_F2_U2_B2_R-_D-_L-_D_F-_D2_B2_D2_L2_%0A&amp;alg=_U-_R_B_R-_R_B-_R-_B_F-_U_B_U-_F_B-_R_B-_R-_U_D_D_U-_R-_D_U-_B_B_D-_U_R-_U_D-_D-_R_U-_R-_U_D-_F_U_F-_D_U-_R-_F_R_F-_B_U-_U-_F_B-_R_F-_R_U-_U-_L_U-_D_F-_U-_F_D-_U_L-_U-_U_D-_F_U-_D_R-_U-_R_D-_U_F-_%2F%2Fmistake_from_here%0AD_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J86" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="87">
       <c r="A87" s="3" t="inlineStr">
@@ -2973,23 +2255,6 @@
       </c>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1617055379.43</v>
-      </c>
-      <c r="D87" t="n">
-        <v>40.68</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1617055420.11</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -2998,16 +2263,7 @@
           <t>solve87</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' L L R' D L' R F' F' R' L D R' L R' L R' F R B' F D' F F D F' B R' F R D F' U D' L L U' D F' D' D L F' L' L' U D' B B U' D F L' D' U D' B L B' D U' L F' L' R' L F' R' L D' R' L B' B' L' R D' L' R F' L' R U' U' R U R U R' D D R U' R' D D U' R' R' D R U' R' D' R U' R' D R U U R' D' R D' R' U R U' R' D R U R' D' U' R D D' R' U R U' R' D R U R' U' D' R D R' R' B' R B R' B' R F' R' B R B' R' B R F R</t>
-        </is>
-      </c>
-      <c r="J87" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D-_F_L2_U-_B2_D-_L2_D_L2_D-_R2_B-_L-_B2_D_U-_F_U2_R-%0A&amp;alg=_R-_L_L_R-_D_L-_R_F-_F-_R-_L_D_R-_L_R-_L_R-_F_R_B-_F_D-_F_F_D_F-_B_R-_F_R_D_F-_U_D-_L_L_U-_D_F-_D-_D_L_F-_L-_L-_U_D-_B_B_U-_D_F_L-_D-_U_D-_B_L_B-_D_U-_L_F-_L-_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_R_D-_L-_R_F-_L-_R_U-_U-_R_U_R_U_R-_D_D_R_U-_R-_D_D_U-_R-_R-_D_R_U-_R-_D-_R_U-_R-_D_R_U_U_R-_D-_R_D-_R-_U_R_U-_R-_D_R_U_R-_D-_U-_R_D_D-_R-_U_R_U-_R-_D_R_U_R-_U-_D-_R_D_R-_R-_B-_R_B_R-_B-_R_F-_R-_B_R_B-_R-_B_R_F_R%0A</t>
-        </is>
-      </c>
+      <c r="J87" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="88">
       <c r="A88" s="3" t="inlineStr">
@@ -3017,7 +2273,7 @@
       </c>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H88" s="10" t="inlineStr">
@@ -3035,7 +2291,7 @@
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H89" s="10" t="inlineStr">
@@ -3053,7 +2309,7 @@
       </c>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H90" s="10" t="inlineStr">
@@ -3071,23 +2327,6 @@
       </c>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1617101395.2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1617101419.08</v>
-      </c>
-      <c r="F91" t="n">
-        <v>16</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3096,16 +2335,7 @@
           <t>solve91</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U D' B L B' D U' L F' L' L F' R' F L' R U' R U R' D' D' U L D' U B' B' D U' L D D U' L' U' L U R' L F' L' F R R R</t>
-        </is>
-      </c>
-      <c r="J91" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L2_U-_F2_R2_D2_B2_R2_D_F2_R2_U-_F_U-_F-_D_L-_R-_B_U_F-%0A&amp;alg=_U_D-_B_L_B-_D_U-_L_F-_L-_L_F-_R-_F_L-_R_U-_R_U_R-_D-_D-_U_L_D-_U_B-_B-_D_U-_L_D_D_U-_L-_U-_L_U_R-_L_F-_L-_F_%2F%2Fmistake_from_here%0AR_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J91" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="92">
       <c r="A92" s="3" t="inlineStr">
@@ -3115,7 +2345,7 @@
       </c>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H92" s="10" t="inlineStr">
@@ -3133,23 +2363,6 @@
       </c>
       <c r="B93" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>1617101817.99</v>
-      </c>
-      <c r="D93" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1617101856.37</v>
-      </c>
-      <c r="F93" t="n">
-        <v>29</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3158,16 +2371,7 @@
           <t>solve93</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' D U' B U' B' U D' R U R' R' U D' F U' F' D U' R U R U' R' L F R' L D' D' L' R F L' R U D' F' U D' L U' L' D U' F U D R' L F' L' F' B D D B' F L' F L' R R' R' D' R U U R R' R' D R U U R R D' R' U' R D R' U R R</t>
-        </is>
-      </c>
-      <c r="J93" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U2_L2_F2_D2_L2_F-_L2_R2_B_R2_F-_D-_L-_B-_F-_L_D_U-_L-_D2%0A&amp;alg=_R-_D_U-_B_U-_B-_U_D-_R_U_R-_R-_U_D-_F_U-_F-_D_U-_R_U_R_U-_R-_L_F_R-_L_D-_D-_L-_R_F_L-_R_U_D-_F-_U_D-_L_U-_L-_D_U-_F_U_D_R-_L_F-_L-_F-_B_D_D_B-_F_L-_F_L-_R_R-_R-_D-_R_U_U_R_R-_R-_D_R_U_U_R_R_D-_R-_U-_R_D_R-_%2F%2Fmistake_from_here%0AU_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J93" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="94">
       <c r="A94" s="3" t="inlineStr">
@@ -3177,23 +2381,6 @@
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>1617102170.97</v>
-      </c>
-      <c r="D94" t="n">
-        <v>35.74</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1617102206.71</v>
-      </c>
-      <c r="F94" t="n">
-        <v>32</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3202,16 +2389,7 @@
           <t>solve94</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U L D' U B' U' U' B U' D L' U U' U' L U' D F' U' F D' U L' U' D L F' L' L' U D' B B U' D F L' D' U' R U' D B' U' B U D' R' U U R' L F' L' F L' R U' L U D' U' B U' D L' U' L D' U B' U' D U' U' R D U U R D' R' U U R D R' D' R' U U D R' D R U' R' D' R D' R D U R' D' R U' R' D R D' R' R R</t>
-        </is>
-      </c>
-      <c r="J94" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D_R2_B2_U_B2_R2_U-_L2_U-_F2_B_L2_R_D_R-_F-_L-_U_%0A&amp;alg=_U_L_D-_U_B-_U-_U-_B_U-_D_L-_U_U-_U-_L_U-_D_F-_U-_F_D-_U_L-_U-_D_L_F-_L-_L-_U_D-_B_B_U-_D_F_L-_D-_U-_R_U-_D_B-_U-_B_U_D-_R-_U_U_R-_L_F-_L-_F_L-_R_U-_L_U_D-_U-_B_U-_D_L-_U-_L_D-_U_B-_U-_D_U-_U-_R_D_U_U_R_D-_R-_U_U_R_D_R-_D-_R-_U_U_D_R-_D_R_U-_R-_D-_R_D-_R_D_U_R-_D-_R_U-_R-_D_R_D-_%2F%2Fmistake_from_here%0AR-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J94" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="95">
       <c r="A95" s="3" t="inlineStr">
@@ -3221,7 +2399,7 @@
       </c>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H95" s="10" t="inlineStr">
@@ -3239,23 +2417,6 @@
       </c>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>1617102606.03</v>
-      </c>
-      <c r="D96" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1617102613.94</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3264,16 +2425,7 @@
           <t>solve96</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' F R R U' R' F R R U' U'</t>
-        </is>
-      </c>
-      <c r="J96" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U2_L-_D-_R2_U2_B_R_L_F2_B2_U_L2_F2_U2_R2_D_L2_B2_D_%0A&amp;alg=_R-_F_R_R_U-_R-_%2F%2Fmistake_from_here%0AF_R_R_U-_U-_%0A</t>
-        </is>
-      </c>
+      <c r="J96" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="97">
       <c r="A97" s="3" t="inlineStr">
@@ -3283,7 +2435,7 @@
       </c>
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H97" s="10" t="inlineStr">
@@ -3301,7 +2453,7 @@
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H98" s="10" t="inlineStr">
@@ -3319,23 +2471,6 @@
       </c>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>1617103195.67</v>
-      </c>
-      <c r="D99" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1617103202.72</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3344,16 +2479,7 @@
           <t>solve99</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R R U' R' R' U' R R R U' R' R' U'</t>
-        </is>
-      </c>
-      <c r="J99" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B-_R2_F_U2_L_B2_R_U_F2_D_B2_L2_U-_B2_U-_F2_D2_R2_U-_B-_U-%0A&amp;alg=_R_R_U-_R-_R-_U-_R_R_R_U-_R-_R-_U-%0A</t>
-        </is>
-      </c>
+      <c r="J99" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -3363,23 +2489,6 @@
       </c>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>1617103332.64</v>
-      </c>
-      <c r="D100" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1617103337.73</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3388,16 +2497,7 @@
           <t>solve100</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R R U' R' R' U' R R R U' R U' R' F R R U'</t>
-        </is>
-      </c>
-      <c r="J100" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L2_F2_L2_U-_L2_D-_B2_U_F2_U-_B2_U-_F_R-_D_F_R2_F2_R_U-_L2%0A&amp;alg=_R_R_%2F%2Fmistake_from_here%0AU-_R-_R-_U-_R_R_R_U-_R_U-_R-_F_R_R_U-_%0A</t>
-        </is>
-      </c>
+      <c r="J100" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="101">
       <c r="A101" s="3" t="inlineStr">
@@ -3407,23 +2507,6 @@
       </c>
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>1617103492.87</v>
-      </c>
-      <c r="D101" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1617103496.73</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3432,16 +2515,7 @@
           <t>solve101</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R R U' R R U' R R U' R R U'</t>
-        </is>
-      </c>
-      <c r="J101" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L-_F2_L2_U-_R2_B2_D_L2_U-_L2_U-_R-_D2_U2_R-_D2_L2_U-_F-_%0A&amp;alg=_R_R_U-_R_R_%2F%2Fmistake_from_here%0AU-_R_R_U-_R_R_U-_%0A</t>
-        </is>
-      </c>
+      <c r="J101" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="102">
       <c r="A102" s="3" t="inlineStr">
@@ -3451,7 +2525,7 @@
       </c>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H102" s="10" t="inlineStr">
@@ -3469,7 +2543,7 @@
       </c>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H103" s="10" t="inlineStr">
@@ -3487,7 +2561,7 @@
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H104" s="10" t="inlineStr">
@@ -3505,7 +2579,7 @@
       </c>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H105" s="10" t="inlineStr">
@@ -3523,7 +2597,7 @@
       </c>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H106" s="10" t="inlineStr">
@@ -3541,7 +2615,7 @@
       </c>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H107" s="10" t="inlineStr">
@@ -3559,7 +2633,7 @@
       </c>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H108" s="10" t="inlineStr">
@@ -3577,7 +2651,7 @@
       </c>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H109" s="10" t="inlineStr">
@@ -3595,7 +2669,7 @@
       </c>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H110" s="10" t="inlineStr">
@@ -3613,7 +2687,7 @@
       </c>
       <c r="B111" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H111" s="10" t="inlineStr">
@@ -3631,23 +2705,6 @@
       </c>
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>1617109326.06</v>
-      </c>
-      <c r="D112" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1617109351.57</v>
-      </c>
-      <c r="F112" t="n">
-        <v>13</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3656,16 +2713,7 @@
           <t>solve112</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L' R F' L F R' L D' L' D U L U' D F' F' U D' L U' D D U L' U D' B B D U' L' U' D' D' R D U' B' U' B U D' R' U R' F' L F L' R U' L' U L B' B' R' F' L R' L D' R' L B' B' L' R D' L' R F' L' R U' U' B' B' R' U' D' R U R' D R U' R' U R R R</t>
-        </is>
-      </c>
-      <c r="J112" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D-_L2_U2_B2_R2_F_U2_B-_U2_B-_L2_U_R_U_L-_D-_B_U-_L-_F-_%0A&amp;alg=_L-_R_F-_L_F_R-_L_D-_L-_D_U_L_U-_D_F-_F-_U_D-_L_U-_D_D_U_L-_U_D-_B_B_D_U-_L-_U-_D-_D-_R_D_U-_B-_U-_B_U_D-_R-_U_R-_F-_L_F_L-_R_U-_L-_U_%2F%2Fmistake_from_here%0AL_B-_B-_R-_F-_L_R-_L_D-_R-_L_B-_B-_L-_R_D-_L-_R_F-_L-_R_U-_U-_B-_B-_R-_U-_D-_R_U_R-_D_R_U-_R-_U_R_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J112" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="113">
       <c r="A113" s="3" t="inlineStr">
@@ -3675,23 +2723,6 @@
       </c>
       <c r="B113" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>1617109629.21</v>
-      </c>
-      <c r="D113" t="n">
-        <v>30.18</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1617109659.38</v>
-      </c>
-      <c r="F113" t="n">
-        <v>26</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3700,16 +2731,7 @@
           <t>solve113</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R U' D B' U' B U D' R' U D' U L U' D F' F' U D' L D U' U F' B U' U U' F U B' F R' F' R U' L F F R' F B' D F' D' F' B R F' L' L U L' U' R' L R' L D L D' R' R' L D D U' R' U D' F F D U' R' U D' D' U L' U D' B B U' D L' U' D' R' L R' L D' R' L B' R' L U' U' L' R B' L' R D' L' R F' F' L' R D R R</t>
-        </is>
-      </c>
-      <c r="J113" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L_D2_B-_R-_L_B-_U-_F-_D_F2_D-_B2_R2_D-_B2_D_L2_F2_D2_L%0A&amp;alg=_R_U-_D_B-_U-_B_U_D-_R-_U_D-_U_L_U-_D_F-_F-_U_D-_L_D_U-_U_F-_B_U-_U_U-_F_U_B-_F_R-_F-_R_U-_L_F_F_R-_F_B-_D_F-_D-_F-_B_R_F-_L-_L_U_L-_U-_R-_L_R-_L_D_L_D-_R-_R-_L_D_D_U-_R-_U_D-_F_F_D_U-_R-_U_D-_D-_U_L-_U_D-_B_B_U-_D_L-_U-_D-_R-_L_R-_L_D-_R-_L_B-_R-_L_U-_U-_L-_R_B-_L-_R_D-_L-_R_F-_F-_L-_R_%2F%2Fmistake_from_here%0AD_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J113" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="114">
       <c r="A114" s="3" t="inlineStr">
@@ -3719,23 +2741,6 @@
       </c>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>1617109922.75</v>
-      </c>
-      <c r="D114" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1617109949.14</v>
-      </c>
-      <c r="F114" t="n">
-        <v>22</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3744,16 +2749,7 @@
           <t>solve114</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R U' R D' U F' F' U' D R U R' D' D' L' R F' F' R' L B' F R U R' L F' F' L' R U R' F' B U' R U' D B' U U B D' U R' U' R R U' F' B U' U' B' F R R U R' R' R' F R' F B' D D F' B R' F' R R B R' L F' R' L D' R' L B' B' L' R L' L D' L' R F' L' R U' U' B' R' R R</t>
-        </is>
-      </c>
-      <c r="J114" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R2_D-_B2_U2_L2_U-_F2_D-_B2_U_F2_L2_F_D-_L-_U2_F2_D-_F-_L2_%0A&amp;alg=_R_U-_R_D-_U_F-_F-_U-_D_R_U_R-_D-_D-_L-_R_F-_F-_R-_L_B-_F_R_U_R-_L_F-_F-_L-_R_U_R-_F-_B_U-_R_U-_D_B-_U_U_B_D-_U_R-_U-_R_R_U-_F-_B_U-_U-_B-_F_R_R_U_R-_R-_R-_F_R-_F_B-_D_D_F-_B_R-_F-_R_R_B_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_R_L-_L_D-_L-_R_F-_L-_R_U-_U-_B-_%2F%2Fmistake_from_here%0AR-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J114" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="115">
       <c r="A115" s="3" t="inlineStr">
@@ -3763,7 +2759,7 @@
       </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H115" s="10" t="inlineStr">
@@ -3781,7 +2777,7 @@
       </c>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H116" s="10" t="inlineStr">
@@ -3799,7 +2795,7 @@
       </c>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H117" s="10" t="inlineStr">
@@ -3817,23 +2813,6 @@
       </c>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>1617110657.1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>25.37</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1617110682.47</v>
-      </c>
-      <c r="F118" t="n">
-        <v>19</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3842,16 +2821,7 @@
           <t>solve118</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L D' U B' U B U' D L' U' U' D F' U F' D' U L L U' D F' F' D' U L L U' D F' U' F B' F B' F D' F' B R' R' B' F D' B' F B' F U' R F' L' F R' L D' L D L' R U' F' B U' U' B' F R R U R' L R' F F' L' R U R U' R'</t>
-        </is>
-      </c>
-      <c r="J118" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U-_F2_B_L_F_R_B-_U2_L2_U_L2_D_F2_L2_U2_R2_U2_D-_B2_R_D-%0A&amp;alg=_L_D-_U_B-_U_B_U-_D_L-_U-_U-_D_F-_U_F-_D-_U_L_L_U-_D_F-_F-_D-_U_L_L_U-_D_F-_U-_F_B-_F_B-_F_D-_F-_B_R-_R-_B-_F_D-_B-_F_B-_F_U-_R_F-_L-_F_R-_L_D-_L_D_L-_R_U-_F-_B_U-_U-_B-_F_%2F%2Fmistake_from_here%0AR_R_U_R-_L_R-_F_F-_L-_R_U_R_U-_R-_%0A</t>
-        </is>
-      </c>
+      <c r="J118" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="119">
       <c r="A119" s="3" t="inlineStr">
@@ -3861,23 +2831,6 @@
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>1617110845.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1617110889.51</v>
-      </c>
-      <c r="F119" t="n">
-        <v>23</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3886,16 +2839,7 @@
           <t>solve119</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> D U' R' U R' L F' R L' F R D' D' R D' U F' U' F U' D R' D U F R U' R' U D' F U F' U' D R U' R' U D' F U F' U' D F' U' D U' B' D' U R U' R' U' D B U D' U U B' F D' F D F' B R' F' R D' U F' D' U L U' L' U' D F D U U R D R' U R D' R' U R' R' D' R R' D R R R' R' D' R U U R' D R U U R R B R' F' R B R' R B R' F R B R' R B' R' F' R B R' F</t>
-        </is>
-      </c>
-      <c r="J119" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=F2_R-_L-_B2_D2_R_B_R-_D_R2_L2_B2_U-_D_F2_B2_U_B2_R2_F-_%0A&amp;alg=_D_U-_R-_U_R-_L_F-_R_L-_F_R_D-_D-_R_D-_U_F-_U-_F_U-_D_R-_D_U_F_R_U-_R-_U_D-_F_U_F-_U-_D_R_U-_R-_U_D-_F_U_F-_U-_D_F-_U-_D_U-_B-_D-_U_R_U-_R-_U-_D_B_U_D-_U_U_B-_F_D-_F_D_F-_B_R-_F-_R_D-_U_F-_D-_U_L_U-_L-_U-_D_F_%2F%2Fmistake_from_here%0AD_U_U_R_D_R-_U_R_D-_R-_U_R-_R-_D-_R_R-_D_R_R_R-_R-_D-_R_U_U_R-_D_R_U_U_R_R_B_R-_F-_R_B_R-_R_B_R-_F_R_B_R-_R_B-_R-_F-_R_B_R-_F_%0A</t>
-        </is>
-      </c>
+      <c r="J119" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="120">
       <c r="A120" s="3" t="inlineStr">
@@ -3905,7 +2849,7 @@
       </c>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H120" s="10" t="inlineStr">
@@ -3923,7 +2867,7 @@
       </c>
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H121" s="10" t="inlineStr">
@@ -3941,7 +2885,7 @@
       </c>
       <c r="B122" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H122" s="10" t="inlineStr">
@@ -3959,23 +2903,6 @@
       </c>
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1617111545.69</v>
-      </c>
-      <c r="D123" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1617111560.15</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -3984,16 +2911,7 @@
           <t>solve123</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' U' R D' U F' U F U' D R' U' D B U' B' U D' R U U' D F' U F' D' U L L U' D F' F' F F' D' U L U' L U' R F' U' U F B' D' B D F' F' D' L</t>
-        </is>
-      </c>
-      <c r="J123" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U-_L2_F_R_L2_D-_R-_B_U_R-_U2_R-_L_U2_R2_B2_L_U2_F2_%0A&amp;alg=_R-_U-_R_D-_U_F-_U_F_U-_D_R-_U-_D_B_U-_B-_U_D-_R_U_U-_D_F-_U_F-_D-_U_L_L_%2F%2Fmistake_from_here%0AU-_D_F-_F-_F_F-_D-_U_L_U-_L_U-_R_F-_U-_U_F_B-_D-_B_D_F-_F-_D-_L_%0A</t>
-        </is>
-      </c>
+      <c r="J123" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="124">
       <c r="A124" s="3" t="inlineStr">
@@ -4003,7 +2921,7 @@
       </c>
       <c r="B124" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H124" s="10" t="inlineStr">
@@ -4021,7 +2939,7 @@
       </c>
       <c r="B125" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H125" s="10" t="inlineStr">
@@ -4039,7 +2957,7 @@
       </c>
       <c r="B126" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H126" s="10" t="inlineStr">
@@ -4057,7 +2975,7 @@
       </c>
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H127" s="10" t="inlineStr">
@@ -4075,7 +2993,7 @@
       </c>
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H128" s="10" t="inlineStr">
@@ -4093,23 +3011,6 @@
       </c>
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>1617112402.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1617112426.58</v>
-      </c>
-      <c r="F129" t="n">
-        <v>15</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4118,16 +3019,7 @@
           <t>solve129</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> D L' R F F R' L D R F D' U F' F' U' D R R F' R' U' D' R' D' U F F U' D R' U D L U L' D' U U' D U' D F U' F' D' U U' L R' R F' R' L D' R' L B' B' L' R D' L' F' R L' U' R U' U R' R R</t>
-        </is>
-      </c>
-      <c r="J129" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B2_D_R_F2_U-_D2_F_D_L2_F2_U2_F_B2_D2_L2_D2_R2_F-_R2_L-_%0A&amp;alg=_D_L-_R_F_F_R-_L_D_R_F_D-_U_F-_F-_U-_D_R_R_F-_R-_U-_D-_R-_D-_U_F_F_U-_D_R-_U_D_L_U_L-_D-_U_U-_D_U-_D_F_U-_F-_D-_%2F%2Fmistake_from_here%0AU_U-_L_R-_R_F-_R-_L_D-_R-_L_B-_B-_L-_R_D-_L-_F-_R_L-_U-_R_U-_U_R-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J129" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="130">
       <c r="A130" s="3" t="inlineStr">
@@ -4137,7 +3029,7 @@
       </c>
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H130" s="10" t="inlineStr">
@@ -4155,7 +3047,7 @@
       </c>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H131" s="10" t="inlineStr">
@@ -4173,23 +3065,6 @@
       </c>
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>1617112633.69</v>
-      </c>
-      <c r="D132" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1617112652.84</v>
-      </c>
-      <c r="F132" t="n">
-        <v>6</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4198,16 +3073,7 @@
           <t>solve132</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U U R U' D B' U B D' U R' U F' B L D' R' L B B L' D' R L' B' F R' U' R' R' F' B U U B' F U R D' U' B U' D L' U' L D' U B' U' U' D L' L' F' U' D F F D' U L' L' F L L B B' R R</t>
-        </is>
-      </c>
-      <c r="J132" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R-_D2_U2_F2_L2_F2_L_B2_D2_R-_D2_F-_U2_L-_D-_R2_D2_U-_F_L-_%0A&amp;alg=_U_U_R_U-_D_B-_U_B_D-_U_R-_U_F-_B_L_D-_R-_L_B_B_L-_D-_R_L-_B-_F_R-_U-_R-_R-_F-_B_U_U_B-_F_U_%2F%2Fmistake_from_here%0AR_D-_U-_B_U-_D_L-_U-_L_D-_U_B-_U-_U-_D_L-_L-_F-_U-_D_F_F_D-_U_L-_L-_F_L_L_B_B-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J132" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="133">
       <c r="A133" s="3" t="inlineStr">
@@ -4217,7 +3083,7 @@
       </c>
       <c r="B133" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H133" s="10" t="inlineStr">
@@ -4235,23 +3101,6 @@
       </c>
       <c r="B134" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>1617113406.34</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1617113408.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4260,16 +3109,7 @@
           <t>solve134</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L' U L U' D F' U' F D' U R' L R' L D' U L' D L U' U' L' F' B L L L U' D</t>
-        </is>
-      </c>
-      <c r="J134" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L2_U-_L-_D-_F-_U_F2_R2_F_R-_B2_U2_B2_D2_R-_U2_F2_L-_U2_B2%0A&amp;alg=_L-_U_L_U-_%2F%2Fmistake_from_here%0AD_F-_U-_F_D-_U_R-_L_R-_L_D-_U_L-_D_L_U-_U-_L-_F-_B_L_L_L_U-_D_%0A</t>
-        </is>
-      </c>
+      <c r="J134" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="135">
       <c r="A135" s="3" t="inlineStr">
@@ -4279,7 +3119,7 @@
       </c>
       <c r="B135" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H135" s="10" t="inlineStr">
@@ -4297,7 +3137,7 @@
       </c>
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H136" s="10" t="inlineStr">
@@ -4315,7 +3155,7 @@
       </c>
       <c r="B137" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H137" s="10" t="inlineStr">
@@ -4333,7 +3173,7 @@
       </c>
       <c r="B138" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H138" s="10" t="inlineStr">
@@ -4351,7 +3191,7 @@
       </c>
       <c r="B139" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H139" s="10" t="inlineStr">
@@ -4369,23 +3209,6 @@
       </c>
       <c r="B140" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>1617115153.06</v>
-      </c>
-      <c r="D140" t="n">
-        <v>21.63</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1617115174.69</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4394,16 +3217,7 @@
           <t>solve140</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' L R' B' F D F D' F' B R F' L' R U' R' R' F' B U U B' F U R R' L' F' U' D F F D' U L' L' F L U U' L R' L R' L D L' R' D' R R' L R' L L F' L' L' D' U B B U' D F L' R U' D B' U' B D' U R' U U' D R D' R' U U R D R' U' D'</t>
-        </is>
-      </c>
-      <c r="J140" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R2_D_R2_U_L2_U-_R2_U_R2_F2_U_B-_R-_U2_L-_F-_D_L_D_R_F2%0A&amp;alg=_R-_L_R-_B-_F_D_F_D-_F-_B_R_F-_L-_R_U-_R-_R-_F-_B_U_U_B-_F_U_R_R-_L-_F-_U-_D_F_F_D-_U_L-_L-_F_%2F%2Fmistake_from_here%0AL_U_U-_L_R-_L_R-_L_D_L-_R-_D-_R_R-_L_R-_L_L_F-_L-_L-_D-_U_B_B_U-_D_F_L-_R_U-_D_B-_U-_B_D-_U_R-_U_U-_D_R_D-_R-_U_U_R_D_R-_U-_D-_%0A</t>
-        </is>
-      </c>
+      <c r="J140" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="141">
       <c r="A141" s="3" t="inlineStr">
@@ -4413,7 +3227,7 @@
       </c>
       <c r="B141" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H141" s="10" t="inlineStr">
@@ -4431,7 +3245,7 @@
       </c>
       <c r="B142" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H142" s="10" t="inlineStr">
@@ -4449,7 +3263,7 @@
       </c>
       <c r="B143" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H143" s="10" t="inlineStr">
@@ -4467,7 +3281,7 @@
       </c>
       <c r="B144" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H144" s="10" t="inlineStr">
@@ -4485,7 +3299,7 @@
       </c>
       <c r="B145" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H145" s="10" t="inlineStr">
@@ -4503,7 +3317,7 @@
       </c>
       <c r="B146" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H146" s="10" t="inlineStr">
@@ -4521,7 +3335,7 @@
       </c>
       <c r="B147" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H147" s="10" t="inlineStr">
@@ -4539,7 +3353,7 @@
       </c>
       <c r="B148" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H148" s="10" t="inlineStr">
@@ -4557,23 +3371,6 @@
       </c>
       <c r="B149" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="D149" t="n">
-        <v>35.96</v>
-      </c>
-      <c r="E149" t="n">
-        <v>44.29</v>
-      </c>
-      <c r="F149" t="n">
-        <v>33</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4582,16 +3379,7 @@
           <t>solve149</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L' U' D F' U F D' U L' U' L' L' L' U L U' R' L F L' F' R U' L' D' U B U' U' B' U' D L U' D' U' B U' D L' U' L D' U B' U' U' D U' R R U R' R' L D' L R R D R' R' L L D' U B' U B U' D L' U' L U' R' U U R' D' R U R' U D R R U R R</t>
-        </is>
-      </c>
-      <c r="J149" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=F2_D_L2_D-_B_D_F_D_R_F2_U2_F2_U_F2_U_B2_U2_D-_L2_U2_%0A&amp;alg=_L-_U-_D_F-_U_F_D-_U_L-_U-_L-_L-_L-_U_L_U-_R-_L_F_L-_F-_R_U-_L-_D-_U_B_U-_U-_B-_U-_D_L_U-_D-_U-_B_U-_D_L-_U-_L_D-_U_B-_U-_U-_D_U-_R_R_U_R-_R-_L_D-_L_R_R_D_R-_R-_L_L_D-_U_B-_U_B_U-_D_L-_U-_%2F%2Fmistake_from_here%0AL_U-_R-_U_U_R-_D-_R_U_R-_U_D_R_R_U_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J149" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="150">
       <c r="A150" s="3" t="inlineStr">
@@ -4601,7 +3389,7 @@
       </c>
       <c r="B150" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H150" s="10" t="inlineStr">
@@ -4619,7 +3407,7 @@
       </c>
       <c r="B151" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H151" s="10" t="inlineStr">
@@ -4637,23 +3425,6 @@
       </c>
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="D152" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="E152" t="n">
-        <v>40.56</v>
-      </c>
-      <c r="F152" t="n">
-        <v>28</v>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4662,16 +3433,7 @@
           <t>solve152</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U R' F R F' B U' F' U B' F U' U' R' D' U F U' F' U' D R U U L F' L' F' B D F' F' D' B' F L F' L' R' F R R U' D B' B' D' U F' R U D L U' D F' F' D' U L U' D' L U' F' D U F D' U L' U' R U L' U' R' U L U' R R</t>
-        </is>
-      </c>
-      <c r="J152" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L-_B_L_F-_B_U-_B2_D2_L_B2_D_F2_D-_R2_F2_U2_L2_F2_D_R2_U2_%0A&amp;alg=_U_R-_F_R_F-_B_U-_F-_U_B-_F_U-_U-_R-_D-_U_F_U-_F-_U-_D_R_U_U_L_F-_L-_F-_B_D_F-_F-_D-_B-_F_L_F-_L-_R-_F_R_R_U-_D_B-_B-_D-_U_F-_R_U_D_L_U-_D_F-_F-_D-_U_L_U-_%2F%2Fmistake_from_here%0AD-_L_U-_F-_D_U_F_D-_U_L-_U-_R_U_L-_U-_R-_U_L_U-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J152" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="153">
       <c r="A153" s="3" t="inlineStr">
@@ -4681,7 +3443,7 @@
       </c>
       <c r="B153" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H153" s="10" t="inlineStr">
@@ -4699,7 +3461,7 @@
       </c>
       <c r="B154" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H154" s="10" t="inlineStr">
@@ -4717,7 +3479,7 @@
       </c>
       <c r="B155" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H155" s="10" t="inlineStr">
@@ -4735,7 +3497,7 @@
       </c>
       <c r="B156" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H156" s="10" t="inlineStr">
@@ -4753,7 +3515,7 @@
       </c>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H157" s="10" t="inlineStr">
@@ -4771,7 +3533,7 @@
       </c>
       <c r="B158" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H158" s="10" t="inlineStr">
@@ -4789,7 +3551,7 @@
       </c>
       <c r="B159" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H159" s="10" t="inlineStr">
@@ -4807,7 +3569,7 @@
       </c>
       <c r="B160" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H160" s="10" t="inlineStr">
@@ -4825,7 +3587,7 @@
       </c>
       <c r="B161" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H161" s="10" t="inlineStr">
@@ -4843,23 +3605,6 @@
       </c>
       <c r="B162" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="D162" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="E162" t="n">
-        <v>61.22</v>
-      </c>
-      <c r="F162" t="n">
-        <v>52</v>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4868,16 +3613,7 @@
           <t>solve162</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' R R U' L' R B R R B' R' L L' R F R' F' R' L D D' R U R' D' U F U U F' U' D R U R U' R' U' D B B D' U R' U R' R' F R F' B U' U' U U' B' F R F' R R' F R F' B U' F' U B' F R' U R' F' B U U B' F R' U' R R R</t>
-        </is>
-      </c>
-      <c r="J162" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U_R_B_D_L2_D_B2_D_U-_R2_L-_D_F2_U2_F2_U2_B-_%0A&amp;alg=_U-_R_R_U-_L-_R_B_R_R_B-_R-_L_L-_R_F_R-_F-_R-_L_D_D-_R_U_R-_D-_U_F_U_U_F-_U-_D_R_U_R_U-_R-_U-_D_B_B_D-_U_R-_U_R-_R-_F_R_F-_B_U-_U-_U_U-_B-_F_R_F-_R_R-_F_R_F-_B_U-_F-_U_B-_F_R-_U_R-_F-_B_U_U_B-_F_R-_U-_%2F%2Fmistake_from_here%0AR_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J162" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="163">
       <c r="A163" s="3" t="inlineStr">
@@ -4887,23 +3623,6 @@
       </c>
       <c r="B163" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="D163" t="n">
-        <v>38.76</v>
-      </c>
-      <c r="E163" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>30</v>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -4912,16 +3631,7 @@
           <t>solve163</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' U' L' R B' B' R' L L F' R' F L' R U' R U R' L' L' U B' F U U F' B L' L' U' L L R U' R' D' U F U F' U' D R' L R' D' L L' F' R F' R' L D' R' L R' L D U L U' R' L F L' F' L' D' R B' F R U' L' R B R B' R' L U R' R' F' B U' U' L D' U B' U' B U' D L' U' U' D D' R R' U R D R' D' R' D' U' D R U R' D' R U' R' D U R R R</t>
-        </is>
-      </c>
-      <c r="J163" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U-_B-_F2_R_D2_L_B2_U2_R_B2_U2_R-_U2_F-_U-_F-_L2_B_F_R-_%0A&amp;alg=_U-_U-_L-_R_B-_B-_R-_L_L_F-_R-_F_L-_R_U-_R_U_R-_L-_L-_U_B-_F_U_U_F-_B_L-_L-_U-_L_L_R_U-_R-_D-_U_F_U_F-_U-_%2F%2Fmistake_from_here%0AD_R-_L_R-_D-_L_L-_F-_R_F-_R-_L_D-_R-_L_R-_L_D_U_L_U-_R-_L_F_L-_F-_L-_D-_R_B-_F_R_U-_L-_R_B_R_B-_R-_L_U_R-_R-_F-_B_U-_U-_L_D-_U_B-_U-_B_U-_D_L-_U-_U-_D_D-_R_R-_U_R_D_R-_D-_R-_D-_U-_D_R_U_R-_D-_R_U-_R-_D_U_R_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J163" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="164">
       <c r="A164" s="3" t="inlineStr">
@@ -4931,7 +3641,7 @@
       </c>
       <c r="B164" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H164" s="10" t="inlineStr">
@@ -4949,7 +3659,7 @@
       </c>
       <c r="B165" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H165" s="10" t="inlineStr">
@@ -4967,7 +3677,7 @@
       </c>
       <c r="B166" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H166" s="10" t="inlineStr">
@@ -4985,7 +3695,7 @@
       </c>
       <c r="B167" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H167" s="10" t="inlineStr">
@@ -5003,7 +3713,7 @@
       </c>
       <c r="B168" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H168" s="10" t="inlineStr">
@@ -5021,23 +3731,6 @@
       </c>
       <c r="B169" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>48.11</v>
-      </c>
-      <c r="D169" t="n">
-        <v>50.36</v>
-      </c>
-      <c r="E169" t="n">
-        <v>98.47</v>
-      </c>
-      <c r="F169" t="n">
-        <v>76</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5046,16 +3739,7 @@
           <t>solve169</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U L U' R' R' L L D L' D' R' R' L L D D' U L U' D F' U F D' U L' U' U' R' F R F' B U' F F U B' F R' F R R' D' U F U' F' U' D R U U' R' U' D B U U B' D' U R U' D R' L F' R' F L' R U' R D' U R R U' F' B U' U' B' F R R U R' R' R' D' U R U' R' D R U R' U' R D R' D' R U' R' D R D' U R' U' R' D' R U U R' D U' R R R' U' R' D' R U U R' D R U' R R R</t>
-        </is>
-      </c>
-      <c r="J169" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L2_F2_U_L2_D_L2_B_R-_F_D_F2_L2_D_F2_B2_U-_B2_L2_U_B2_R2_%0A&amp;alg=_U_L_U-_R-_R-_L_L_D_L-_D-_R-_R-_L_L_D_D-_U_L_U-_D_F-_U_F_D-_U_L-_U-_U-_R-_F_R_F-_B_U-_F_F_U_B-_F_R-_F_R_R-_D-_U_F_U-_F-_U-_D_R_U_U-_R-_U-_D_B_U_U_B-_D-_U_R_U-_D_R-_L_F-_R-_F_L-_R_U-_R_D-_U_R_R_U-_F-_B_U-_U-_B-_F_R_R_U_R-_R-_R-_D-_U_R_U-_R-_D_R_U_R-_U-_R_D_R-_D-_R_U-_R-_D_R_D-_%2F%2Fmistake_from_here%0AU_R-_U-_R-_D-_R_U_U_R-_D_U-_R_R_R-_U-_R-_D-_R_U_U_R-_D_R_U-_R_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J169" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="170">
       <c r="A170" s="3" t="inlineStr">
@@ -5065,23 +3749,6 @@
       </c>
       <c r="B170" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="D170" t="n">
-        <v>39.94</v>
-      </c>
-      <c r="E170" t="n">
-        <v>47.56</v>
-      </c>
-      <c r="F170" t="n">
-        <v>26</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5090,16 +3757,7 @@
           <t>solve170</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' U' D B D' U R' R' U' D B D' U U D' F' D' U L U' L' U' D F U D L' R B L' B' R' L U L U' L F' L' F' B D D' F B' F U' R' U' L' R B R B' R' L U U L F' U' D F' F' D' U L L F L' U' R R D R' R' U R U' R R' R' D' R R U R' R' R' D R U R' D' R U U R' D R U R' D' R R R</t>
-        </is>
-      </c>
-      <c r="J170" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B-_D2_B_L2_D2_L2_B_D2_R2_B2_R2_B_U-_R2_U_F_D-_L_B2_F-_L2%0A&amp;alg=_U-_U-_D_B_D-_U_R-_R-_U-_D_B_D-_U_U_D-_F-_D-_U_L_U-_L-_U-_D_F_U_D_L-_R_B_L-_B-_R-_L_U_L_U-_L_F-_L-_F-_B_D_D-_F_B-_F_U-_R-_U-_L-_R_B_R_B-_R-_L_U_U_L_F-_U-_D_F-_F-_D-_U_L_L_F_%2F%2Fmistake_from_here%0AL-_U-_R_R_D_R-_R-_U_R_U-_R_R-_R-_D-_R_R_U_R-_R-_R-_D_R_U_R-_D-_R_U_U_R-_D_R_U_R-_D-_R_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J170" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="171">
       <c r="A171" s="3" t="inlineStr">
@@ -5109,7 +3767,7 @@
       </c>
       <c r="B171" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H171" s="10" t="inlineStr">
@@ -5127,7 +3785,7 @@
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H172" s="10" t="inlineStr">
@@ -5145,7 +3803,7 @@
       </c>
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H173" s="10" t="inlineStr">
@@ -5163,7 +3821,7 @@
       </c>
       <c r="B174" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H174" s="10" t="inlineStr">
@@ -5181,23 +3839,6 @@
       </c>
       <c r="B175" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="D175" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="E175" t="n">
-        <v>47.02</v>
-      </c>
-      <c r="F175" t="n">
-        <v>16</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5206,16 +3847,7 @@
           <t>solve175</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R U' R R F' B U' U' B' F U R' U L' U L' R B' L B R' L U' U' R B' R' L U' U' L' R B' R' L F L' F' B D F' F' D' B' F L L' F D R' L R' L R' L B' R' L U' R' L F' F' L' U' R L' R B' L' D' R D' L' R L' R D' B' L' L' U L L B' F U' U' F' B U' L L B D' U F' D' U L U' L' U' D F U D U' R R</t>
-        </is>
-      </c>
-      <c r="J175" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B-_R2_U2_B2_D2_B-_D2_L2_B-_R2_F-_D2_R_B_F_L-_U-_B-_L_D_B_%0A&amp;alg=_R_U-_R_R_F-_B_U-_U-_B-_F_U_R-_U_L-_U_L-_R_B-_L_B_R-_L_U-_U-_R_B-_R-_L_U-_U-_L-_R_B-_%2F%2Fmistake_from_here%0AR-_L_F_L-_F-_B_D_F-_F-_D-_B-_F_L_L-_F_D_R-_L_R-_L_R-_L_B-_R-_L_U-_R-_L_F-_F-_L-_U-_R_L-_R_B-_L-_D-_R_D-_L-_R_L-_R_D-_B-_L-_L-_U_L_L_B-_F_U-_U-_F-_B_U-_L_L_B_D-_U_F-_D-_U_L_U-_L-_U-_D_F_U_D_U-_R_R_%0A</t>
-        </is>
-      </c>
+      <c r="J175" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="176">
       <c r="A176" s="3" t="inlineStr">
@@ -5225,7 +3857,7 @@
       </c>
       <c r="B176" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H176" s="10" t="inlineStr">
@@ -5243,7 +3875,7 @@
       </c>
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H177" s="10" t="inlineStr">
@@ -5261,23 +3893,6 @@
       </c>
       <c r="B178" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D178" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="E178" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="F178" t="n">
-        <v>25</v>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5286,16 +3901,7 @@
           <t>solve178</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' D F' U F D' U L' U' L U F' B U' F' U B' F R' F R U' U L D' U B' U B U' D L' U' U' R' D' U D' U L U' L' D' U B U B' D' U R D' U F U' D R' U' D' R U F' D L F R' F B' D D' F F' B R F F L' B' F U F' U' F' B L F L' B' F U F' U' F' B L F L' D' U U B U' D L' U L D' U B' U' U' U' D U' U R</t>
-        </is>
-      </c>
-      <c r="J178" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=F2_D-_R2_F_B_U2_R-_D-_U2_L_F2_B2_L_B2_D2_B2_U2_R_%0A&amp;alg=_U-_D_F-_U_F_D-_U_L-_U-_L_U_F-_B_U-_F-_U_B-_F_R-_F_R_U-_U_L_D-_U_B-_U_B_U-_D_L-_U-_U-_R-_D-_U_D-_U_L_U-_L-_D-_U_B_U_B-_D-_U_R_D-_U_F_U-_D_R-_U-_D-_R_U_F-_%2F%2Fmistake_from_here%0AD_L_F_R-_F_B-_D_D-_F_F-_B_R_F_F_L-_B-_F_U_F-_U-_F-_B_L_F_L-_B-_F_U_F-_U-_F-_B_L_F_L-_D-_U_U_B_U-_D_L-_U_L_D-_U_B-_U-_U-_U-_D_U-_U_R_%0A</t>
-        </is>
-      </c>
+      <c r="J178" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="179">
       <c r="A179" s="3" t="inlineStr">
@@ -5305,7 +3911,7 @@
       </c>
       <c r="B179" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H179" s="10" t="inlineStr">
@@ -5323,7 +3929,7 @@
       </c>
       <c r="B180" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H180" s="10" t="inlineStr">
@@ -5341,23 +3947,6 @@
       </c>
       <c r="B181" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D181" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="E181" t="n">
-        <v>49.32</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5366,21 +3955,7 @@
           <t>solve181</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R U' R' D' U F F' U U' D U' R' B R F' B U' B' U B' F U R R U' F' B U' U' B' F R R R' R U R' R' D F D' U L' L' U' D F D' L F R' F F B' D F D' B F' R F L' U' D R' D' U F F U' D R' D' U R' L R' D' L L' F' R F' R' L D' R' L R' L R U D R U R' D' R U' R' U' R' R U R R' D U' D' R R' R' R R</t>
-        </is>
-      </c>
-      <c r="J181" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U-_R_F-_D2_B-_L_F-_R2_U_F2_D_L2_F2_U_R2_D2_F2_D-_R2_B-_R2_%0A&amp;alg=_R_U-_R-_D-_U_F_F-_U_U-_D_U-_R-_B_R_F-_B_U-_B-_U_B-_F_U_R_R_U-_F-_B_U-_U-_B-_F_R_R_R-_R_U_R-_%2F%2Fmistake_from_here%0AR-_D_F_D-_U_L-_L-_U-_D_F_D-_L_F_R-_F_F_B-_D_F_D-_B_F-_R_F_L-_U-_D_R-_D-_U_F_F_U-_D_R-_D-_U_R-_L_R-_D-_L_L-_F-_R_F-_R-_L_D-_R-_L_R-_L_R_U_D_R_U_R-_D-_R_U-_R-_U-_R-_R_U_R_R-_D_U-_D-_R_R-_R-_R_R_%0A</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>exe_error</t>
-        </is>
-      </c>
+      <c r="J181" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="182">
       <c r="A182" s="3" t="inlineStr">
@@ -5390,7 +3965,7 @@
       </c>
       <c r="B182" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H182" s="10" t="inlineStr">
@@ -5408,7 +3983,7 @@
       </c>
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H183" s="10" t="inlineStr">
@@ -5426,23 +4001,6 @@
       </c>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D184" t="n">
-        <v>51.96</v>
-      </c>
-      <c r="E184" t="n">
-        <v>58.36</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5451,21 +4009,7 @@
           <t>solve184</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' F' R D' U F' L F U' D U L' B' R' L U' U' L' R B' L U' R' F L F' L' R U L' U' L D D U L' U' D F F D' U L' U' D D L D' U B' U B U' D L' U' L D' U B' U B U' D L' U' D' L' R F F R' L D' D' L' R F F R' L D' R' L F' R' L D' R' L B' B' L' D' R L' F' R L' U' R U' R R</t>
-        </is>
-      </c>
-      <c r="J184" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D_R2_U-_R2_D_L2_R2_U_B2_U_R2_U_B-_L_F-_R_D-_R_B-_L2_R%0A&amp;alg=_R-_F-_R_D-_U_F-_L_F_U-_D_U_L-_B-_R-_L_U-_U-_L-_R_B-_L_U-_R-_F_L_F-_L-_R_U_L-_U-_L_D_D_U_L-_U-_D_F_F_D-_U_L-_U-_D_D_L_D-_U_B-_U_B_U-_D_L-_U-_L_D-_U_B-_U_B_U-_D_L-_U-_D-_L-_R_F_F_R-_L_D-_D-_L-_R_F_F_R-_L_%2F%2Fmistake_from_here%0AD-_R-_L_F-_R-_L_D-_R-_L_B-_B-_L-_D-_R_L-_F-_R_L-_U-_R_U-_R_R_%0A</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>trace_error</t>
-        </is>
-      </c>
+      <c r="J184" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="185">
       <c r="A185" s="3" t="inlineStr">
@@ -5475,7 +4019,7 @@
       </c>
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H185" s="10" t="inlineStr">
@@ -5493,23 +4037,6 @@
       </c>
       <c r="B186" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D186" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E186" t="n">
-        <v>39.59</v>
-      </c>
-      <c r="F186" t="n">
-        <v>31</v>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5518,21 +4045,7 @@
           <t>solve186</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U R' F' B U U B' F R' U' L' R B L B' R' L U L' U' R' U L' U' D F F D' U L' U' R R' U L' U' D F F D' U L' U' R D L F' L' F' B D D' F B' F D' U' R' F F R B' F D' F F D F' B U R</t>
-        </is>
-      </c>
-      <c r="J186" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U-_R_F2_D2_F-_U_B_D2_R-_L2_F2_U2_F_U2_B_U2_F_D2_B-_L2%0A&amp;alg=_U_R-_F-_B_U_U_B-_F_R-_U-_L-_R_B_L_B-_R-_L_U_L-_U-_R-_U_L-_U-_D_F_F_D-_U_L-_U-_R_R-_U_L-_U-_D_F_F_D-_U_L-_U-_R_D_L_F-_L-_F-_B_D_D-_F_B-_F_D-_U-_R-_F_F_R_B-_F_D-_F_F_D_F-_B_%2F%2Fmistake_from_here%0AU_R_%0A</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>trace_error</t>
-        </is>
-      </c>
+      <c r="J186" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="187">
       <c r="A187" s="3" t="inlineStr">
@@ -5542,23 +4055,6 @@
       </c>
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="D187" t="n">
-        <v>38.36</v>
-      </c>
-      <c r="E187" t="n">
-        <v>44.84</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5567,21 +4063,7 @@
           <t>solve187</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U' L D' U B' U' U' B U' D L' U' R B R' L U U L' R B R' D L' U' D F U F' D' U L U' D' R U' R' D' U F U F' U' D U L' U' R' L F L F' L' R U' D B' D' U R U' R' U' D B D' U U B' D D R U R' D D R U' R' B F F R B R' F F R B' R' R' D F R</t>
-        </is>
-      </c>
-      <c r="J187" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=D2_F2_U-_B2_U-_R2_B2_U-_R2_D-_U-_R2_F-_R_U2_F-_L_R-_D-_L_F-%0A&amp;alg=_U-_L_D-_U_B-_U-_U-_B_U-_D_L-_U-_R_B_R-_L_U_U_L-_R_B_R-_D_L-_U-_D_F_U_F-_D-_U_L_U-_D-_R_U-_R-_D-_U_F_U_F-_U-_D_U_L-_U-_R-_L_F_L_F-_L-_R_U-_D_B-_D-_U_R_U-_R-_U-_D_B_D-_U_U_B-_D_D_R_U_R-_D_D_R_U-_R-_B_F_F_R_B_R-_F_F_R_B-_%2F%2Fmistake_from_here%0AR-_R-_D_F_R_%0A</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>exe_error</t>
-        </is>
-      </c>
+      <c r="J187" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="188">
       <c r="A188" s="3" t="inlineStr">
@@ -5591,7 +4073,7 @@
       </c>
       <c r="B188" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H188" s="10" t="inlineStr">
@@ -5609,7 +4091,7 @@
       </c>
       <c r="B189" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H189" s="10" t="inlineStr">
@@ -5627,23 +4109,6 @@
       </c>
       <c r="B190" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="D190" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="E190" t="n">
-        <v>70.41</v>
-      </c>
-      <c r="F190" t="n">
-        <v>14</v>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5652,16 +4117,7 @@
           <t>solve190</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' F R B' F D' F' D F' B</t>
-        </is>
-      </c>
-      <c r="J190" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=B-_U2_R_D-_F-_B_L-_U-_F2_D2_F-_B2_D2_R2_F_R2_F2_D2_L-_B2%0A&amp;alg=_R-_F_R_B-_F_D-_F-_%2F%2Fmistake_from_here%0AD_F-_B_%0A</t>
-        </is>
-      </c>
+      <c r="J190" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="191">
       <c r="A191" s="3" t="inlineStr">
@@ -5671,7 +4127,7 @@
       </c>
       <c r="B191" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H191" s="10" t="inlineStr">
@@ -5689,7 +4145,7 @@
       </c>
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H192" s="10" t="inlineStr">
@@ -5707,7 +4163,7 @@
       </c>
       <c r="B193" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H193" s="10" t="inlineStr">
@@ -5725,7 +4181,7 @@
       </c>
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H194" s="10" t="inlineStr">
@@ -5743,7 +4199,7 @@
       </c>
       <c r="B195" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H195" s="10" t="inlineStr">
@@ -5761,7 +4217,7 @@
       </c>
       <c r="B196" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H196" s="10" t="inlineStr">
@@ -5779,7 +4235,7 @@
       </c>
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H197" s="10" t="inlineStr">
@@ -5797,7 +4253,7 @@
       </c>
       <c r="B198" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H198" s="10" t="inlineStr">
@@ -5815,23 +4271,6 @@
       </c>
       <c r="B199" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="D199" t="n">
-        <v>134.46</v>
-      </c>
-      <c r="E199" t="n">
-        <v>140.67</v>
-      </c>
-      <c r="F199" t="n">
-        <v>27</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -5840,16 +4279,7 @@
           <t>solve199</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U L U' D F' U' U' F D' U L' U' R' L L' R F' B B' F R U' U' R' U D' U F F U' D R' U R' R U' R' D' U F F U' D R' U R' R U' R' D' U F F U' D R' U R' R U' R' D' U F F U' D R' U R' R U' R' D' U F F U' D R' U R'</t>
-        </is>
-      </c>
-      <c r="J199" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R2_B-_R-_D2_B-_R-_F_U-_F-_L-_B2_D-_B2_R2_U_F2_L2_D2_F2_R2_U_%0A&amp;alg=_U_L_U-_D_F-_U-_U-_%2F%2Fmistake_from_here%0AF_D-_U_L-_U-_R-_L_L-_R_F-_B_B-_F_R_U-_U-_R-_U_D-_U_F_F_U-_D_R-_U_R-_R_U-_R-_D-_U_F_F_U-_D_R-_U_R-_R_U-_R-_D-_U_F_F_U-_D_R-_U_R-_R_U-_R-_D-_U_F_F_U-_D_R-_U_R-_R_U-_R-_D-_U_F_F_U-_D_R-_U_R-_%0A</t>
-        </is>
-      </c>
+      <c r="J199" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="200">
       <c r="A200" s="3" t="inlineStr">
@@ -5859,7 +4289,7 @@
       </c>
       <c r="B200" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H200" s="10" t="inlineStr">
@@ -5877,7 +4307,7 @@
       </c>
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H201" s="10" t="inlineStr">
@@ -5895,7 +4325,7 @@
       </c>
       <c r="B202" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H202" s="10" t="inlineStr">
@@ -5913,7 +4343,7 @@
       </c>
       <c r="B203" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H203" s="10" t="inlineStr">
@@ -5931,7 +4361,7 @@
       </c>
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H204" s="10" t="inlineStr">
@@ -5949,7 +4379,7 @@
       </c>
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H205" s="10" t="inlineStr">
@@ -5967,7 +4397,7 @@
       </c>
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H206" s="10" t="inlineStr">
@@ -5985,7 +4415,7 @@
       </c>
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H207" s="10" t="inlineStr">
@@ -6003,7 +4433,7 @@
       </c>
       <c r="B208" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H208" s="10" t="inlineStr">
@@ -6021,7 +4451,7 @@
       </c>
       <c r="B209" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H209" s="10" t="inlineStr">
@@ -6039,7 +4469,7 @@
       </c>
       <c r="B210" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H210" s="10" t="inlineStr">
@@ -6057,7 +4487,7 @@
       </c>
       <c r="B211" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H211" s="10" t="inlineStr">
@@ -6075,7 +4505,7 @@
       </c>
       <c r="B212" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H212" s="10" t="inlineStr">
@@ -6093,7 +4523,7 @@
       </c>
       <c r="B213" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H213" s="10" t="inlineStr">
@@ -6111,7 +4541,7 @@
       </c>
       <c r="B214" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H214" s="10" t="inlineStr">
@@ -6129,7 +4559,7 @@
       </c>
       <c r="B215" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H215" s="10" t="inlineStr">
@@ -6147,7 +4577,7 @@
       </c>
       <c r="B216" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H216" s="10" t="inlineStr">
@@ -6165,7 +4595,7 @@
       </c>
       <c r="B217" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H217" s="10" t="inlineStr">
@@ -6183,7 +4613,7 @@
       </c>
       <c r="B218" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H218" s="10" t="inlineStr">
@@ -6201,7 +4631,7 @@
       </c>
       <c r="B219" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H219" s="10" t="inlineStr">
@@ -6219,7 +4649,7 @@
       </c>
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H220" s="10" t="inlineStr">
@@ -6237,7 +4667,7 @@
       </c>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H221" s="10" t="inlineStr">
@@ -6255,7 +4685,7 @@
       </c>
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H222" s="10" t="inlineStr">
@@ -6273,7 +4703,7 @@
       </c>
       <c r="B223" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H223" s="10" t="inlineStr">
@@ -6291,7 +4721,7 @@
       </c>
       <c r="B224" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H224" s="10" t="inlineStr">
@@ -6309,7 +4739,7 @@
       </c>
       <c r="B225" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H225" s="10" t="inlineStr">
@@ -6327,7 +4757,7 @@
       </c>
       <c r="B226" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H226" s="10" t="inlineStr">
@@ -6345,7 +4775,7 @@
       </c>
       <c r="B227" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H227" s="10" t="inlineStr">
@@ -6363,7 +4793,7 @@
       </c>
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H228" s="10" t="inlineStr">
@@ -6381,7 +4811,7 @@
       </c>
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H229" s="10" t="inlineStr">
@@ -6399,7 +4829,7 @@
       </c>
       <c r="B230" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H230" s="10" t="inlineStr">
@@ -6417,7 +4847,7 @@
       </c>
       <c r="B231" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H231" s="10" t="inlineStr">
@@ -6435,7 +4865,7 @@
       </c>
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H232" s="10" t="inlineStr">
@@ -6453,7 +4883,7 @@
       </c>
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H233" s="10" t="inlineStr">
@@ -6471,7 +4901,7 @@
       </c>
       <c r="B234" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H234" s="10" t="inlineStr">
@@ -6489,7 +4919,7 @@
       </c>
       <c r="B235" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H235" s="10" t="inlineStr">
@@ -6507,7 +4937,7 @@
       </c>
       <c r="B236" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H236" s="10" t="inlineStr">
@@ -6525,7 +4955,7 @@
       </c>
       <c r="B237" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H237" s="10" t="inlineStr">
@@ -6543,7 +4973,7 @@
       </c>
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H238" s="10" t="inlineStr">
@@ -6561,7 +4991,7 @@
       </c>
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H239" s="10" t="inlineStr">
@@ -6579,7 +5009,7 @@
       </c>
       <c r="B240" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H240" s="10" t="inlineStr">
@@ -6597,7 +5027,7 @@
       </c>
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H241" s="10" t="inlineStr">
@@ -6615,7 +5045,7 @@
       </c>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H242" s="10" t="inlineStr">
@@ -6633,7 +5063,7 @@
       </c>
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H243" s="10" t="inlineStr">
@@ -6651,7 +5081,7 @@
       </c>
       <c r="B244" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H244" s="10" t="inlineStr">
@@ -6669,7 +5099,7 @@
       </c>
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H245" s="10" t="inlineStr">
@@ -6687,7 +5117,7 @@
       </c>
       <c r="B246" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H246" s="10" t="inlineStr">
@@ -6705,7 +5135,7 @@
       </c>
       <c r="B247" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H247" s="10" t="inlineStr">
@@ -6723,7 +5153,7 @@
       </c>
       <c r="B248" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H248" s="10" t="inlineStr">
@@ -6741,7 +5171,7 @@
       </c>
       <c r="B249" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H249" s="10" t="inlineStr">
@@ -6759,7 +5189,7 @@
       </c>
       <c r="B250" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H250" s="10" t="inlineStr">
@@ -6777,7 +5207,7 @@
       </c>
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H251" s="10" t="inlineStr">
@@ -6795,7 +5225,7 @@
       </c>
       <c r="B252" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H252" s="10" t="inlineStr">
@@ -6813,7 +5243,7 @@
       </c>
       <c r="B253" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H253" s="10" t="inlineStr">
@@ -6831,7 +5261,7 @@
       </c>
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H254" s="10" t="inlineStr">
@@ -6849,7 +5279,7 @@
       </c>
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H255" s="10" t="inlineStr">
@@ -6867,7 +5297,7 @@
       </c>
       <c r="B256" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H256" s="10" t="inlineStr">
@@ -6885,7 +5315,7 @@
       </c>
       <c r="B257" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H257" s="10" t="inlineStr">
@@ -6903,7 +5333,7 @@
       </c>
       <c r="B258" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H258" s="10" t="inlineStr">
@@ -6921,7 +5351,7 @@
       </c>
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H259" s="10" t="inlineStr">
@@ -6939,7 +5369,7 @@
       </c>
       <c r="B260" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H260" s="10" t="inlineStr">
@@ -6957,7 +5387,7 @@
       </c>
       <c r="B261" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H261" s="10" t="inlineStr">
@@ -6975,7 +5405,7 @@
       </c>
       <c r="B262" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H262" s="10" t="inlineStr">
@@ -6993,7 +5423,7 @@
       </c>
       <c r="B263" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H263" s="10" t="inlineStr">
@@ -7011,23 +5441,6 @@
       </c>
       <c r="B264" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="D264" t="n">
-        <v>28.67</v>
-      </c>
-      <c r="E264" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="F264" t="n">
-        <v>11</v>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -7036,16 +5449,7 @@
           <t>solve264</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> D D R' R' U F F U D' R R F' B F' B U' F F B' U R' R' U' D B B B' U D' D' U L' R R B B' R' L U L L F F L' D F' F' D' L F L'</t>
-        </is>
-      </c>
-      <c r="J264" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=U_D-_R_L-_F_D_R_U_L-_U2_F2_U2_R-_B2_U2_R_U2_F2_%0A&amp;alg=_D_D_%2F%2Fmistake_from_here%0AR-_R-_U_F_F_U_D-_R_R_F-_B_F-_B_U-_F_F_B-_U_R-_R-_U-_D_B_B_B-_U_D-_D-_U_L-_R_R_B_B-_R-_L_U_L_L_F_F_L-_D_F-_F-_D-_L_F_L-_%0A</t>
-        </is>
-      </c>
+      <c r="J264" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="265">
       <c r="A265" s="3" t="inlineStr">
@@ -7055,7 +5459,7 @@
       </c>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H265" s="10" t="inlineStr">
@@ -7073,7 +5477,7 @@
       </c>
       <c r="B266" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H266" s="10" t="inlineStr">
@@ -7091,7 +5495,7 @@
       </c>
       <c r="B267" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H267" s="10" t="inlineStr">
@@ -7109,7 +5513,7 @@
       </c>
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H268" s="10" t="inlineStr">
@@ -7127,7 +5531,7 @@
       </c>
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H269" s="10" t="inlineStr">
@@ -7145,7 +5549,7 @@
       </c>
       <c r="B270" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H270" s="10" t="inlineStr">
@@ -7163,7 +5567,7 @@
       </c>
       <c r="B271" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H271" s="10" t="inlineStr">
@@ -7181,7 +5585,7 @@
       </c>
       <c r="B272" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H272" s="10" t="inlineStr">
@@ -7199,7 +5603,7 @@
       </c>
       <c r="B273" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H273" s="10" t="inlineStr">
@@ -7217,7 +5621,7 @@
       </c>
       <c r="B274" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H274" s="10" t="inlineStr">
@@ -7235,7 +5639,7 @@
       </c>
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H275" s="10" t="inlineStr">
@@ -7253,7 +5657,7 @@
       </c>
       <c r="B276" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H276" s="10" t="inlineStr">
@@ -7271,7 +5675,7 @@
       </c>
       <c r="B277" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H277" s="10" t="inlineStr">
@@ -7289,7 +5693,7 @@
       </c>
       <c r="B278" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H278" s="10" t="inlineStr">
@@ -7307,7 +5711,7 @@
       </c>
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H279" s="10" t="inlineStr">
@@ -7325,7 +5729,7 @@
       </c>
       <c r="B280" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H280" s="10" t="inlineStr">
@@ -7343,7 +5747,7 @@
       </c>
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H281" s="10" t="inlineStr">
@@ -7361,7 +5765,7 @@
       </c>
       <c r="B282" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H282" s="10" t="inlineStr">
@@ -7379,7 +5783,7 @@
       </c>
       <c r="B283" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H283" s="10" t="inlineStr">
@@ -7397,7 +5801,7 @@
       </c>
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H284" s="10" t="inlineStr">
@@ -7415,23 +5819,6 @@
       </c>
       <c r="B285" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D285" t="n">
-        <v>48.61</v>
-      </c>
-      <c r="E285" t="n">
-        <v>57</v>
-      </c>
-      <c r="F285" t="n">
-        <v>47</v>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -7440,16 +5827,7 @@
           <t>solve285</t>
         </is>
       </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> U L U' D F' U' U' F U D' L' U R' R' L2 L D L' D' R' R' L2 U L U' L' R U' R' D U' B B U D' R' U R' D U' D R' U D' F F U' D R' U D2 R' R' L2 D' L' R F' F' R' L D' R2 L L U D' F U' D R' U' R U D' F' D R' D R U R' D' R U U R' D R U R' D' R R' D R U R' D' R U R' D R U U R' D' R U' D' R' U R' D R U' R' D' R R U D R B R' F F R B' R' F F R2</t>
-        </is>
-      </c>
-      <c r="J285" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=R2_D-_R2_D2_B2_U_L2_R2_D_L2_U-_F2_B-_L2_U2_R_F_R_B2_F_%0A&amp;alg=_U_L_U-_D_F-_U-_U-_F_U_D-_L-_U_R-_R-_L2_L_D_L-_D-_R-_R-_L2_U_L_U-_L-_R_U-_R-_D_U-_B_B_U_D-_R-_U_R-_D_U-_D_R-_U_D-_F_F_U-_D_R-_U_D2_R-_R-_L2_D-_L-_R_F-_F-_R-_L_D-_R2_L_L_U_D-_F_U-_D_R-_U-_R_U_D-_F-_D_R-_D_R_U_R-_D-_R_U_U_R-_D_R_U_R-_D-_R_R-_D_R_U_R-_D-_R_U_R-_D_R_U_U_R-_D-_R_U-_D-_R-_U_R-_D_R_U-_R-_D-_R_R_U_D_R_B_R-_F_F_R_B-_R-_F_%2F%2Fmistake_from_here%0AF_R2_%0A</t>
-        </is>
-      </c>
+      <c r="J285" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="286">
       <c r="A286" s="3" t="inlineStr">
@@ -7459,7 +5837,7 @@
       </c>
       <c r="B286" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H286" s="10" t="inlineStr">
@@ -7477,7 +5855,7 @@
       </c>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H287" s="10" t="inlineStr">
@@ -7495,7 +5873,7 @@
       </c>
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H288" s="10" t="inlineStr">
@@ -7513,7 +5891,7 @@
       </c>
       <c r="B289" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H289" s="10" t="inlineStr">
@@ -7531,7 +5909,7 @@
       </c>
       <c r="B290" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H290" s="10" t="inlineStr">
@@ -7549,7 +5927,7 @@
       </c>
       <c r="B291" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H291" s="10" t="inlineStr">
@@ -7567,7 +5945,7 @@
       </c>
       <c r="B292" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H292" s="10" t="inlineStr">
@@ -7585,7 +5963,7 @@
       </c>
       <c r="B293" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H293" s="10" t="inlineStr">
@@ -7603,7 +5981,7 @@
       </c>
       <c r="B294" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H294" s="10" t="inlineStr">
@@ -7621,7 +5999,7 @@
       </c>
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H295" s="10" t="inlineStr">
@@ -7639,23 +6017,6 @@
       </c>
       <c r="B296" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>12</v>
-      </c>
-      <c r="D296" t="n">
-        <v>58.74</v>
-      </c>
-      <c r="E296" t="n">
-        <v>70.73999999999999</v>
-      </c>
-      <c r="F296" t="n">
-        <v>40</v>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -7664,16 +6025,7 @@
           <t>solve296</t>
         </is>
       </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R' D' F F R' U D R U D' F' R D' U U' L' F B' U U F' B L' U U' L' F B' U U F' B L' U F L U' D F' U D' L F' F U' F' U' D R U D' F' U F' U' D R' B U' B' U D' U R U R' U' R' L F R F' L' R R U' F' B U' U' R R U R' U' R' R' D R D' R R U U' R' D' R U U R' D R U U R U U U R D' R' U R D R' U B' R U D D U' R' D D B B'</t>
-        </is>
-      </c>
-      <c r="J296" s="8" t="inlineStr">
-        <is>
-          <t>https://alg.cubing.net/?setup=L-_U2_L_B2_F2_L_B2_F2_U2_L-_U2_L_B_U_L-_U2_B-_R-_D_L-_D_%0A&amp;alg=_R-_D-_F_F_R-_U_D_R_U_D-_F-_R_D-_U_U-_L-_F_B-_U_U_F-_B_L-_U_U-_L-_F_B-_U_U_F-_B_L-_U_F_L_U-_D_F-_U_D-_L_F-_F_U-_F-_U-_D_R_U_D-_F-_U_F-_U-_D_R-_B_U-_B-_U_D-_U_R_U_R-_U-_R-_L_F_R_F-_L-_R_R_U-_F-_B_U-_U-_%2F%2Fmistake_from_here%0AR_R_U_R-_U-_R-_R-_D_R_D-_R_R_U_U-_R-_D-_R_U_U_R-_D_R_U_U_R_U_U_U_R_D-_R-_U_R_D_R-_U_B-_R_U_D_D_U-_R-_D_D_B_B-_%0A</t>
-        </is>
-      </c>
+      <c r="J296" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="297">
       <c r="A297" s="3" t="inlineStr">
@@ -7683,7 +6035,7 @@
       </c>
       <c r="B297" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H297" s="10" t="inlineStr">
@@ -7701,7 +6053,7 @@
       </c>
       <c r="B298" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H298" s="10" t="inlineStr">
@@ -7719,7 +6071,7 @@
       </c>
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H299" s="10" t="inlineStr">
@@ -7737,7 +6089,7 @@
       </c>
       <c r="B300" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H300" s="10" t="inlineStr">
@@ -7755,7 +6107,7 @@
       </c>
       <c r="B301" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H301" s="10" t="inlineStr">
@@ -7773,7 +6125,7 @@
       </c>
       <c r="B302" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H302" s="10" t="inlineStr">
@@ -7791,7 +6143,7 @@
       </c>
       <c r="B303" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H303" s="10" t="inlineStr">
@@ -7809,7 +6161,7 @@
       </c>
       <c r="B304" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H304" s="10" t="inlineStr">
@@ -7827,7 +6179,7 @@
       </c>
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H305" s="10" t="inlineStr">
@@ -7845,7 +6197,7 @@
       </c>
       <c r="B306" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H306" s="10" t="inlineStr">
@@ -7863,7 +6215,7 @@
       </c>
       <c r="B307" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H307" s="10" t="inlineStr">
@@ -7881,7 +6233,7 @@
       </c>
       <c r="B308" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H308" s="10" t="inlineStr">
@@ -7899,7 +6251,7 @@
       </c>
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H309" s="10" t="inlineStr">
@@ -7917,7 +6269,7 @@
       </c>
       <c r="B310" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H310" s="10" t="inlineStr">
@@ -7935,7 +6287,7 @@
       </c>
       <c r="B311" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H311" s="10" t="inlineStr">
@@ -7953,7 +6305,7 @@
       </c>
       <c r="B312" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H312" s="10" t="inlineStr">
@@ -7971,7 +6323,7 @@
       </c>
       <c r="B313" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H313" s="10" t="inlineStr">
@@ -7989,7 +6341,7 @@
       </c>
       <c r="B314" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H314" s="10" t="inlineStr">
@@ -8007,7 +6359,7 @@
       </c>
       <c r="B315" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H315" s="10" t="inlineStr">
@@ -8025,7 +6377,7 @@
       </c>
       <c r="B316" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H316" s="10" t="inlineStr">
@@ -8043,7 +6395,7 @@
       </c>
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H317" s="10" t="inlineStr">
@@ -8061,7 +6413,7 @@
       </c>
       <c r="B318" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H318" s="10" t="inlineStr">
@@ -8079,7 +6431,7 @@
       </c>
       <c r="B319" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H319" s="10" t="inlineStr">
@@ -8097,7 +6449,7 @@
       </c>
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H320" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H46" s="10" t="inlineStr">
@@ -1535,6 +1535,23 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="E47" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -1543,7 +1560,16 @@
           <t>solve47</t>
         </is>
       </c>
-      <c r="J47" s="8" t="n"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F B' R U R' L F' F' R L' U R' F' B U' R R' R B R' F' B U B' U' F B' U U' R B R' B F' U B' U' F B' U R R D R R</t>
+        </is>
+      </c>
+      <c r="J47" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=D2_F_U-_F_D_B-_L-_U2_L-_U_B2_U-_L2_D-_F2_U_F2_D2_B2_U2_%0A&amp;alg=_F_B-_R_U_R-_L_F-_F-_R_L-_U_R-_F-_B_U-_R_R-_R_B_R-_F-_B_U_B-_U-_F_B-_U_U-_R_B_R-_B_F-_U_B-_U-_F_B-_U_%2F%2Fmistake_from_here%0AR_R_D_R_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -1553,7 +1579,7 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H48" s="10" t="inlineStr">
@@ -1571,7 +1597,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H49" s="10" t="inlineStr">
@@ -1589,6 +1615,23 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="E50" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -1597,7 +1640,16 @@
           <t>solve50</t>
         </is>
       </c>
-      <c r="J50" s="8" t="n"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> R L' F R R F' R' L D R R D' F B' D F D' F' B R F' R' L' U F B' U U F' B L' L' U' L D L F' L' F' B D F D' F B' D' U R F' B U' U' F B' R U' R R D R R</t>
+        </is>
+      </c>
+      <c r="J50" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=B-_D-_F_U_R2_U2_L-_B_R_F_L2_F-_L2_F_U2_F2_U2_L2_F_R2_%0A&amp;alg=_R_L-_F_R_R_F-_R-_L_D_R_R_D-_F_B-_D_F_D-_F-_B_R_F-_R-_L-_U_F_B-_U_U_F-_B_L-_L-_U-_L_D_L_F-_L-_F-_B_D_F_D-_F_B-_D-_U_R_F-_B_U-_U-_F_B-_R_U-_%2F%2Fmistake_from_here%0AR_R_D_R_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -1607,7 +1659,7 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H51" s="10" t="inlineStr">
@@ -1625,7 +1677,7 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H52" s="10" t="inlineStr">
@@ -1643,6 +1695,23 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="E53" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="F53" t="n">
+        <v>26</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -1651,7 +1720,16 @@
           <t>solve53</t>
         </is>
       </c>
-      <c r="J53" s="8" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> R' U' R' U D' F U F' U' D R R F B' D' F D F' B R' F' R F L U' D F' F' U D' L F' U D' L' U' D F F U D' L' U' D U' R B R' F' B U B' U' F B' U U F' B U' F U F B' R' F' R U' R B R' F F R B' R' F F R R</t>
+        </is>
+      </c>
+      <c r="J53" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=F2_R2_F2_D-_L2_B2_D2_R2_U-_L2_D_L2_B-_U_L-_B-_F2_L-_D_R_U-_%0A&amp;alg=_R-_U-_R-_U_D-_F_U_F-_U-_D_R_R_F_B-_D-_F_D_F-_B_R-_F-_R_F_L_U-_D_F-_F-_U_D-_L_F-_U_D-_L-_U-_D_F_F_U_D-_L-_U-_D_U-_R_B_R-_F-_B_U_B-_U-_F_B-_U_U_F-_B_U-_F_U_F_B-_R-_F-_R_U-_R_B_R-_F_F_R_B-_R-_F_F_%2F%2Fmistake_from_here%0AR_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -1661,7 +1739,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H54" s="10" t="inlineStr">
@@ -1679,6 +1757,23 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E55" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="F55" t="n">
+        <v>18</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -1687,7 +1782,16 @@
           <t>solve55</t>
         </is>
       </c>
-      <c r="J55" s="8" t="n"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> U U R' U' D B U B' U D' R U U' L' U R' L F' L F L' R D' L' D R L' F' L F R' L U D' F D U' R' U' R U D' F' D U2 L' R B' L' L' B R' L U' L L U' R R</t>
+        </is>
+      </c>
+      <c r="J55" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=D-_L_D_L-_D2_L_F_B2_L2_U2_D_F2_D-_R2_U2_F2_R2_D_F_L-_%0A&amp;alg=_U_U_R-_U-_D_B_U_B-_U_D-_R_U_U-_L-_U_R-_L_F-_L_F_L-_R_D-_L-_D_R_L-_F-_L_F_R-_L_U_D-_F_D_U-_R-_U-_R_U_D-_F-_D_U2_L-_R_B-_L-_L-_B_R-_L_U-_L_L_U-_%2F%2Fmistake_from_here%0AR_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -1697,7 +1801,24 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="E56" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="H56" s="10" t="inlineStr">
@@ -1705,7 +1826,16 @@
           <t>solve56</t>
         </is>
       </c>
-      <c r="J56" s="8" t="n"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> U L' L' R' R U' R' L F L' L' F' R L' R' L F R' F' L' R U R U' F B' U F' U' F' B L F L' U U' R' U' R' U' D B B D' U R' U R U' D F' U F U D' L' U' L D R L' F R' L D R L' F R' L R' U D' F U' F' U' D R U U' R' R' D' R U U R' D R U U R U U D' R U' R' D R U R' U' U D U R' D R U2 R' D' R D' U D R' D' R U' R' D R D' R U R' F' R U R' U' R' F R R U' R' U'</t>
+        </is>
+      </c>
+      <c r="J56" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=L2_U_R2_F2_R2_B2_D2_U_F2_U_L2_R_B_L-_F_D_L-_D-_L2_F2_U-_%0A&amp;alg=_U_L-_L-_R-_R_U-_R-_L_F_L-_L-_F-_R_L-_R-_L_F_R-_F-_L-_R_U_R_U-_F_B-_U_F-_U-_F-_B_L_F_L-_U_U-_R-_U-_R-_U-_D_B_B_D-_U_R-_U_R_U-_D_F-_U_F_U_D-_L-_U-_L_D_R_L-_F_R-_L_D_R_L-_F_R-_L_R-_U_D-_F_U-_F-_U-_D_R_U_U-_R-_R-_D-_R_U_U_R-_D_R_U_U_R_U_U_D-_R_U-_R-_D_R_U_R-_U-_U_D_U_R-_D_R_U2_R-_D-_R_D-_U_D_R-_D-_R_U-_R-_D_R_D-_R_U_R-_F-_R_U_R-_U-_R-_F_R_R_U-_R-_U-%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -1715,7 +1845,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H57" s="10" t="inlineStr">
@@ -1733,7 +1863,7 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H58" s="10" t="inlineStr">
@@ -1751,7 +1881,7 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H59" s="10" t="inlineStr">
@@ -1769,7 +1899,7 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H60" s="10" t="inlineStr">
@@ -1787,7 +1917,24 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D61" t="n">
+        <v>39.79</v>
+      </c>
+      <c r="E61" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="H61" s="10" t="inlineStr">
@@ -1795,7 +1942,16 @@
           <t>solve61</t>
         </is>
       </c>
-      <c r="J61" s="8" t="n"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> U D' F U' D R' U' R U D' F' D U D' L U' R' L F L' F' R L' R L' B' R B R' L U' R' U R' F R F B' D' F F D F' B R' F R R L' B' R' L U' U' R L' B' R' L F' B L L U' L R' F L F' R L' U L F B' D L' U' D F U F' U D' L U' D' U' R' D' R U R' D R D' U' R' R' D R U2 R' D' R U U R D U R' D R U U R' D' R U U R' U' L L U' R U L L U' R' U U R R' D' L' D L D' L' D R R D' L D L' D' L D R R R</t>
+        </is>
+      </c>
+      <c r="J61" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=D2_L2_U2_R_B2_R-_B2_D2_L-_D2_R-_U-_B-_F2_L-_F-_R2_D-_R_B2_F-_%0A&amp;alg=_U_D-_F_U-_D_R-_U-_R_U_D-_F-_D_U_D-_L_U-_R-_L_F_L-_F-_R_L-_R_L-_B-_R_B_R-_L_U-_R-_U_R-_F_R_F_B-_D-_F_F_D_F-_B_R-_F_R_R_L-_B-_R-_L_U-_U-_R_L-_B-_R-_L_F-_B_L_L_U-_L_R-_F_L_F-_R_L-_U_L_F_B-_D_L-_U-_D_F_U_F-_U_D-_L_U-_D-_U-_R-_D-_R_U_R-_D_R_D-_U-_R-_R-_D_R_U2_R-_D-_R_U_U_R_D_U_R-_D_R_U_U_R-_D-_R_U_U_R-_U-_L_L_U-_R_U_L_L_U-_R-_U_U_R_R-_D-_L-_D_L_D-_L-_D_R_R_D-_L_D_L-_D-_L_D_R_R_R%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -1805,7 +1961,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H62" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <charset val="177"/>
@@ -51,6 +51,12 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <color rgb="FF6A8759"/>
+      <sz val="9.800000000000001"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -73,7 +79,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -108,6 +114,9 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,8 +464,8 @@
   </sheetPr>
   <dimension ref="A1:K990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.65"/>
@@ -472,8 +481,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="5" width="255.59765625"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="255.59765625"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="66.86328125"/>
-    <col customWidth="1" max="50" min="12" style="1" width="9"/>
-    <col customWidth="1" max="16384" min="51" style="1" width="9"/>
+    <col customWidth="1" max="51" min="12" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="52" style="1" width="9"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.75" r="1">
@@ -529,9 +538,9 @@
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -549,9 +558,9 @@
       <c r="K2" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A3" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -567,9 +576,9 @@
       <c r="J3" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -577,17 +586,43 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44.78</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="H4" s="10" t="inlineStr">
         <is>
           <t>solve4</t>
         </is>
       </c>
-      <c r="J4" s="8" t="n"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D D U' R' U' D B B U D' R' U D' D' U' D B' U D' R U' R' U' D B U U D' U' R' L F R' L D' D' R L' F R L' U D' F U' D R' U' R U D' F' U D R' L F R F B' D' D' F' B R F' L' R R U' R' U R' L F' R F L' R2 L2 D R L' F' F' R' L D R' L R' L R U U R D R' U U R D' R' R'</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=B2_F2_U2_F2_D_R2_U-_L2_D_L2_F2_B-_R-_U_B2_D_R_D-_L_B_U-%0A&amp;alg=_D_D_U-_R-_U-_D_B_B_U_D-_R-_U_D-_D-_U-_D_B-_U_D-_R_U-_R-_U-_D_B_U_U_D-_U-_R-_L_F_R-_L_D-_D-_R_L-_F_R_L-_U_D-_F_U-_D_R-_U-_R_U_D-_F-_U_D_R-_L_F_R_F_B-_D-_D-_F-_B_R_F-_L-_R_R_U-_R-_U_R-_L_F-_R_F_L-_R2_L2_D_R_L-_F-_F-_R-_L_D_R-_L_R-_L_%2F%2Fmistake_from_here%0AR_U_U_R_D_R-_U_U_R_D-_R-_R-_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -603,9 +638,9 @@
       <c r="J5" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A6" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -622,9 +657,9 @@
       <c r="J6" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -632,17 +667,43 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="H7" s="10" t="inlineStr">
         <is>
           <t>solve7</t>
         </is>
       </c>
-      <c r="J7" s="8" t="n"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D U' D R' U' D B B U D' R' D' U D' U' D B' U D' R U' R' U' D B U D' U U' R' L F R' L D' D' R L' F R L' U D' F U' D R' U' R U D' F' U D R' L F R F B' D' D' F' B R F' L' R L' U L U' R' L F L' F' R R U U R D R' U2 R D' R' R' R U R D' R' U' R D R' R' R' U D' R' D R U' R' D' R D R D' L' D L D' L' D R' D' L D L' D' L D R</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=B2_F2_U2_F2_D_R2_U-_L2_D_L2_F2_B-_R-_U_B2_D_R_D-_L_B_U-%0A&amp;alg=_D_U-_D_R-_U-_D_B_B_U_D-_R-_D-_U_D-_U-_D_B-_U_D-_R_U-_R-_U-_D_B_U_D-_U_U-_R-_L_F_R-_L_D-_D-_R_L-_F_R_L-_U_D-_F_U-_D_R-_U-_R_U_D-_F-_U_D_R-_L_F_R_F_B-_D-_D-_F-_B_R_F-_L-_R_L-_U_L_U-_R-_L_F_L-_F-_R_R_U_U_R_D_R-_U2_R_D-_R-_R-_R_U_R_D-_R-_U-_R_D_R-_R-_R-_U_D-_R-_D_R_U-_R-_D-_R_D_R_D-_L-_D_L_D-_L-_D_R-_D-_L_D_L-_D-_L_D_R%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A8" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -650,18 +711,43 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="H8" s="10" t="inlineStr">
         <is>
           <t>solve8</t>
         </is>
       </c>
-      <c r="I8" s="12" t="n"/>
-      <c r="J8" s="8" t="n"/>
+      <c r="I8" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D D U' R' U' D B2 U D' R' U D' D' U' D B' U D' R U' R' U' D B U2 D' U' R' L F R' L D2 R L' F R L' U D' F U' D R' U' R U D' F' U D R' L F R F B' D' D' F' B R F' L' R L' U L U' R' L F L' F' R R U2 R D R' U U R D' R' R' R U R D' R' U' R D R' R' R R R D D U' R'</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=B2_F2_U2_F2_D_R2_U-_L2_D_L2_F2_B-_R-_U_B2_D_R_D-_L_B_U-%0A&amp;alg=_D_D_U-_R-_U-_D_B2_U_D-_R-_U_D-_D-_U-_D_B-_U_D-_R_U-_R-_U-_D_B_U2_D-_U-_R-_L_F_R-_L_D2_R_L-_F_R_L-_U_D-_F_U-_D_R-_U-_R_U_D-_F-_U_D_R-_L_F_R_F_B-_D-_D-_F-_B_R_F-_L-_R_L-_U_L_U-_R-_L_F_L-_F-_R_R_U2_R_D_R-_U_U_R_D-_R-_R-_R_U_R_D-_R-_U-_R_D_R-_R-_%2F%2Fmistake_from_here%0AR_R_R_D_D_U-_R-_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>U' B' U B' R B2 U F' L' B U2 F' L2 F2 U2 R2 B2 D2 F R2</t>
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>B2 F2 U2 F2 D R2 U' L2 D L2 F2 B' R' U B2 D R D' L B U'</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1979,7 +2065,7 @@
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H63" s="10" t="inlineStr">
@@ -1997,7 +2083,7 @@
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H64" s="10" t="inlineStr">
@@ -2015,6 +2101,23 @@
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="D65" t="n">
+        <v>53.78</v>
+      </c>
+      <c r="E65" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="F65" t="n">
+        <v>58</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2023,7 +2126,16 @@
           <t>solve65</t>
         </is>
       </c>
-      <c r="J65" s="8" t="n"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> R2 F U D' F' F' U' D R R F' R' R' R R2 F U D' F' F' U' D R R F' R' R' D F' U D' L L U' D F' D' D F' U D' L L U' D F' D' R U R' U' R' L F R F' L' B R' L L F' L' F L' R U' L U L' B' R2 U' R R</t>
+        </is>
+      </c>
+      <c r="J65" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=B-_L_F2_U2_F2_U-_R2_U-_F2_L2_U_R2_U-_F-_L2_U-_B_L_D_U_B_%0A&amp;alg=_R2_F_U_D-_F-_F-_U-_D_R_R_F-_R-_R-_R_R2_F_U_D-_F-_F-_U-_D_R_R_F-_R-_R-_D_F-_U_D-_L_L_U-_D_F-_D-_D_F-_U_D-_L_L_U-_D_F-_D-_R_U_R-_U-_R-_L_F_R_F-_L-_B_R-_L_L_F-_L-_F_L-_R_U-_L_U_L-_B-_%2F%2Fmistake_from_here%0AR2_U-_R_R_%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="66">
       <c r="A66" s="3" t="inlineStr">
@@ -2033,7 +2145,7 @@
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H66" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H70" s="10" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H71" s="10" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H72" s="10" t="inlineStr">
@@ -2271,7 +2271,24 @@
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="E73" t="n">
+        <v>65.31999999999999</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="H73" s="10" t="inlineStr">
@@ -2279,7 +2296,11 @@
           <t>solve73</t>
         </is>
       </c>
-      <c r="J73" s="8" t="n"/>
+      <c r="J73" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=R_F-_D-_B2_R_U-_B-_L-_B2_U2_R2_D_F2_R2_U_R2_B2_U-_D-_F2_L-%0A&amp;alg=%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="74">
       <c r="A74" s="3" t="inlineStr">
@@ -2289,7 +2310,7 @@
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H74" s="10" t="inlineStr">
@@ -2307,7 +2328,7 @@
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H75" s="10" t="inlineStr">
@@ -2325,7 +2346,7 @@
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H76" s="10" t="inlineStr">
@@ -2343,7 +2364,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H77" s="10" t="inlineStr">
@@ -2361,7 +2382,7 @@
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H78" s="10" t="inlineStr">
@@ -2379,7 +2400,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H79" s="10" t="inlineStr">
@@ -2397,6 +2418,23 @@
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D80" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="E80" t="n">
+        <v>70.33</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2405,7 +2443,11 @@
           <t>solve80</t>
         </is>
       </c>
-      <c r="J80" s="8" t="n"/>
+      <c r="J80" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=L-_U-_F2_D_L2_U2_L2_R2_B2_L2_R2_U_R-_F-_D_L_U-_R_B_L-_%0A&amp;alg=%0A</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -2415,6 +2457,23 @@
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>45.94</v>
+      </c>
+      <c r="E81" t="n">
+        <v>51.74</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2423,7 +2482,16 @@
           <t>solve81</t>
         </is>
       </c>
-      <c r="J81" s="8" t="n"/>
+      <c r="J81" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=D2_L2_U2_B2_U-_R2_F2_U_B2_U_F2_L-_D2_B-_F_D_L_D-_F2_D-_U2_%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>trace_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -2433,6 +2501,23 @@
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="D82" t="n">
+        <v>127.95</v>
+      </c>
+      <c r="E82" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2441,7 +2526,16 @@
           <t>solve82</t>
         </is>
       </c>
-      <c r="J82" s="8" t="n"/>
+      <c r="J82" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=F2_D-_L2_F-_B-_R-_D2_F2_L_D_L2_D-_B2_L2_U-_L2_D2_R2_L2_F2_D-_%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>trace_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -2451,6 +2545,23 @@
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="E83" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2459,7 +2570,16 @@
           <t>solve83</t>
         </is>
       </c>
-      <c r="J83" s="8" t="n"/>
+      <c r="J83" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=D2_F_L2_B-_U2_B2_R2_D2_L2_B_U2_F2_R_B_D_L2_R-_U-_F_R_F2_%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>trace_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -2469,6 +2589,23 @@
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D84" t="n">
+        <v>131.42</v>
+      </c>
+      <c r="E84" t="n">
+        <v>141.61</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2477,7 +2614,16 @@
           <t>solve84</t>
         </is>
       </c>
-      <c r="J84" s="8" t="n"/>
+      <c r="J84" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=B2_L_F2_B_U_B-_R-_L_B2_D-_B2_D-_B2_U_F2_D2_R2_B2_U_R-%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>trace_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -2487,6 +2633,23 @@
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D85" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="E85" t="n">
+        <v>70.33</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2495,7 +2658,16 @@
           <t>solve85</t>
         </is>
       </c>
-      <c r="J85" s="8" t="n"/>
+      <c r="J85" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=D2_F2_D2_B2_U2_R2_F_U2_L2_F_D2_L_B-_L2_B_F2_D_B_R_D2%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>trace_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="86">
       <c r="A86" s="3" t="inlineStr">
@@ -2505,7 +2677,7 @@
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H86" s="10" t="inlineStr">
@@ -2523,7 +2695,7 @@
       </c>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H87" s="10" t="inlineStr">
@@ -2541,7 +2713,7 @@
       </c>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H88" s="10" t="inlineStr">
@@ -2559,7 +2731,7 @@
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H89" s="10" t="inlineStr">
@@ -2577,7 +2749,7 @@
       </c>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H90" s="10" t="inlineStr">
@@ -2595,7 +2767,7 @@
       </c>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H91" s="10" t="inlineStr">
@@ -2613,7 +2785,7 @@
       </c>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H92" s="10" t="inlineStr">
@@ -2631,7 +2803,7 @@
       </c>
       <c r="B93" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H93" s="10" t="inlineStr">
@@ -2649,7 +2821,7 @@
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H94" s="10" t="inlineStr">
@@ -2667,7 +2839,7 @@
       </c>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H95" s="10" t="inlineStr">
@@ -2685,7 +2857,7 @@
       </c>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H96" s="10" t="inlineStr">
@@ -2703,7 +2875,7 @@
       </c>
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H97" s="10" t="inlineStr">
@@ -2721,7 +2893,7 @@
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H98" s="10" t="inlineStr">
@@ -2739,7 +2911,7 @@
       </c>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H99" s="10" t="inlineStr">
@@ -2757,7 +2929,24 @@
       </c>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="E100" t="n">
+        <v>95.43000000000001</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="H100" s="10" t="inlineStr">
@@ -2765,7 +2954,16 @@
           <t>solve100</t>
         </is>
       </c>
-      <c r="J100" s="8" t="n"/>
+      <c r="J100" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=L2_F2_L2_U-_L2_D-_B2_U_F2_U-_B2_U-_F_R-_D_F_R2_F2_R_U-_L2%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>exe_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="101">
       <c r="A101" s="3" t="inlineStr">
@@ -2775,6 +2973,23 @@
       </c>
       <c r="B101" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="D101" t="n">
+        <v>71.12</v>
+      </c>
+      <c r="E101" t="n">
+        <v>88.48</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2783,7 +2998,16 @@
           <t>solve101</t>
         </is>
       </c>
-      <c r="J101" s="8" t="n"/>
+      <c r="J101" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=L-_F2_L2_U-_R2_B2_D_L2_U-_L2_U-_R-_D2_U2_R-_D2_L2_U-_F-_%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>trace_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="102">
       <c r="A102" s="3" t="inlineStr">
@@ -2793,7 +3017,7 @@
       </c>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H102" s="10" t="inlineStr">
@@ -2811,6 +3035,23 @@
       </c>
       <c r="B103" s="1" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="D103" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="E103" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -2819,7 +3060,16 @@
           <t>solve103</t>
         </is>
       </c>
-      <c r="J103" s="8" t="n"/>
+      <c r="J103" s="8" t="inlineStr">
+        <is>
+          <t>https://alg.cubing.net/?setup=F2_R-_B2_L2_D2_R2_U-_F2_R2_U_L2_U-_F2_U_F-_D_B-_L2_D-_L_F-_%0A&amp;alg=%0A</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>exe_error</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="104">
       <c r="A104" s="3" t="inlineStr">
@@ -2829,7 +3079,7 @@
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H104" s="10" t="inlineStr">
@@ -2847,7 +3097,7 @@
       </c>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H105" s="10" t="inlineStr">
@@ -2865,7 +3115,7 @@
       </c>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H106" s="10" t="inlineStr">
@@ -2883,7 +3133,7 @@
       </c>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H107" s="10" t="inlineStr">
@@ -2901,7 +3151,7 @@
       </c>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H108" s="10" t="inlineStr">
@@ -2919,7 +3169,7 @@
       </c>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H109" s="10" t="inlineStr">
@@ -2937,7 +3187,7 @@
       </c>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H110" s="10" t="inlineStr">
@@ -2955,7 +3205,7 @@
       </c>
       <c r="B111" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H111" s="10" t="inlineStr">
@@ -2973,7 +3223,7 @@
       </c>
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H112" s="10" t="inlineStr">
@@ -2991,7 +3241,7 @@
       </c>
       <c r="B113" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H113" s="10" t="inlineStr">
@@ -3009,7 +3259,7 @@
       </c>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H114" s="10" t="inlineStr">
@@ -3027,7 +3277,7 @@
       </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H115" s="10" t="inlineStr">
@@ -3045,7 +3295,7 @@
       </c>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H116" s="10" t="inlineStr">
@@ -3063,7 +3313,7 @@
       </c>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H117" s="10" t="inlineStr">
@@ -3081,7 +3331,7 @@
       </c>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H118" s="10" t="inlineStr">
@@ -3099,7 +3349,7 @@
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H119" s="10" t="inlineStr">
@@ -3117,7 +3367,7 @@
       </c>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H120" s="10" t="inlineStr">
@@ -3135,7 +3385,7 @@
       </c>
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H121" s="10" t="inlineStr">
@@ -3153,7 +3403,7 @@
       </c>
       <c r="B122" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H122" s="10" t="inlineStr">
@@ -3171,7 +3421,7 @@
       </c>
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H123" s="10" t="inlineStr">
@@ -3189,7 +3439,7 @@
       </c>
       <c r="B124" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H124" s="10" t="inlineStr">
@@ -3207,7 +3457,7 @@
       </c>
       <c r="B125" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H125" s="10" t="inlineStr">
@@ -3225,7 +3475,7 @@
       </c>
       <c r="B126" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H126" s="10" t="inlineStr">
@@ -3243,7 +3493,7 @@
       </c>
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H127" s="10" t="inlineStr">
@@ -3261,7 +3511,7 @@
       </c>
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H128" s="10" t="inlineStr">
@@ -3279,7 +3529,7 @@
       </c>
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H129" s="10" t="inlineStr">
@@ -3297,7 +3547,7 @@
       </c>
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H130" s="10" t="inlineStr">
@@ -3315,7 +3565,7 @@
       </c>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H131" s="10" t="inlineStr">
@@ -3333,7 +3583,7 @@
       </c>
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H132" s="10" t="inlineStr">
@@ -3351,7 +3601,7 @@
       </c>
       <c r="B133" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H133" s="10" t="inlineStr">
@@ -3369,7 +3619,7 @@
       </c>
       <c r="B134" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H134" s="10" t="inlineStr">
@@ -3387,7 +3637,7 @@
       </c>
       <c r="B135" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H135" s="10" t="inlineStr">
@@ -3405,7 +3655,7 @@
       </c>
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H136" s="10" t="inlineStr">
@@ -3423,7 +3673,7 @@
       </c>
       <c r="B137" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H137" s="10" t="inlineStr">
@@ -3441,7 +3691,7 @@
       </c>
       <c r="B138" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H138" s="10" t="inlineStr">
@@ -3459,7 +3709,7 @@
       </c>
       <c r="B139" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H139" s="10" t="inlineStr">
@@ -3477,7 +3727,7 @@
       </c>
       <c r="B140" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H140" s="10" t="inlineStr">
@@ -3495,7 +3745,7 @@
       </c>
       <c r="B141" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H141" s="10" t="inlineStr">
@@ -3513,7 +3763,7 @@
       </c>
       <c r="B142" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H142" s="10" t="inlineStr">
@@ -3531,7 +3781,7 @@
       </c>
       <c r="B143" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H143" s="10" t="inlineStr">
@@ -3549,7 +3799,7 @@
       </c>
       <c r="B144" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H144" s="10" t="inlineStr">
@@ -3567,7 +3817,7 @@
       </c>
       <c r="B145" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H145" s="10" t="inlineStr">
@@ -3585,7 +3835,7 @@
       </c>
       <c r="B146" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H146" s="10" t="inlineStr">
@@ -3603,7 +3853,7 @@
       </c>
       <c r="B147" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H147" s="10" t="inlineStr">
@@ -3621,7 +3871,7 @@
       </c>
       <c r="B148" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H148" s="10" t="inlineStr">
@@ -3639,7 +3889,7 @@
       </c>
       <c r="B149" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H149" s="10" t="inlineStr">
@@ -3657,7 +3907,7 @@
       </c>
       <c r="B150" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H150" s="10" t="inlineStr">
@@ -3675,7 +3925,7 @@
       </c>
       <c r="B151" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H151" s="10" t="inlineStr">
@@ -3693,7 +3943,7 @@
       </c>
       <c r="B152" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H152" s="10" t="inlineStr">
@@ -3711,7 +3961,7 @@
       </c>
       <c r="B153" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H153" s="10" t="inlineStr">
@@ -3729,7 +3979,7 @@
       </c>
       <c r="B154" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H154" s="10" t="inlineStr">
@@ -3747,7 +3997,7 @@
       </c>
       <c r="B155" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H155" s="10" t="inlineStr">
@@ -3765,7 +4015,7 @@
       </c>
       <c r="B156" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H156" s="10" t="inlineStr">
@@ -3783,7 +4033,7 @@
       </c>
       <c r="B157" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H157" s="10" t="inlineStr">
@@ -3801,7 +4051,7 @@
       </c>
       <c r="B158" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H158" s="10" t="inlineStr">
@@ -3819,7 +4069,7 @@
       </c>
       <c r="B159" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H159" s="10" t="inlineStr">
@@ -3837,7 +4087,7 @@
       </c>
       <c r="B160" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H160" s="10" t="inlineStr">
@@ -3855,7 +4105,7 @@
       </c>
       <c r="B161" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H161" s="10" t="inlineStr">
@@ -3873,7 +4123,7 @@
       </c>
       <c r="B162" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H162" s="10" t="inlineStr">
@@ -3891,7 +4141,7 @@
       </c>
       <c r="B163" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H163" s="10" t="inlineStr">
@@ -3909,7 +4159,7 @@
       </c>
       <c r="B164" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H164" s="10" t="inlineStr">
@@ -3927,7 +4177,7 @@
       </c>
       <c r="B165" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H165" s="10" t="inlineStr">
@@ -3945,7 +4195,7 @@
       </c>
       <c r="B166" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H166" s="10" t="inlineStr">
@@ -3963,7 +4213,7 @@
       </c>
       <c r="B167" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H167" s="10" t="inlineStr">
@@ -3981,7 +4231,7 @@
       </c>
       <c r="B168" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H168" s="10" t="inlineStr">
@@ -3999,7 +4249,7 @@
       </c>
       <c r="B169" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H169" s="10" t="inlineStr">
@@ -4017,7 +4267,7 @@
       </c>
       <c r="B170" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H170" s="10" t="inlineStr">
@@ -4035,7 +4285,7 @@
       </c>
       <c r="B171" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H171" s="10" t="inlineStr">
@@ -4053,7 +4303,7 @@
       </c>
       <c r="B172" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H172" s="10" t="inlineStr">
@@ -4071,7 +4321,7 @@
       </c>
       <c r="B173" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H173" s="10" t="inlineStr">
@@ -4089,7 +4339,7 @@
       </c>
       <c r="B174" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H174" s="10" t="inlineStr">
@@ -4107,7 +4357,7 @@
       </c>
       <c r="B175" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H175" s="10" t="inlineStr">
@@ -4125,7 +4375,7 @@
       </c>
       <c r="B176" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H176" s="10" t="inlineStr">
@@ -4143,7 +4393,7 @@
       </c>
       <c r="B177" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H177" s="10" t="inlineStr">
@@ -4161,7 +4411,7 @@
       </c>
       <c r="B178" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H178" s="10" t="inlineStr">
@@ -4179,7 +4429,7 @@
       </c>
       <c r="B179" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H179" s="10" t="inlineStr">
@@ -4197,7 +4447,7 @@
       </c>
       <c r="B180" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H180" s="10" t="inlineStr">
@@ -4215,7 +4465,7 @@
       </c>
       <c r="B181" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H181" s="10" t="inlineStr">
@@ -4233,7 +4483,7 @@
       </c>
       <c r="B182" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H182" s="10" t="inlineStr">
@@ -4251,7 +4501,7 @@
       </c>
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H183" s="10" t="inlineStr">
@@ -4269,7 +4519,7 @@
       </c>
       <c r="B184" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H184" s="10" t="inlineStr">
@@ -4287,7 +4537,7 @@
       </c>
       <c r="B185" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H185" s="10" t="inlineStr">
@@ -4305,7 +4555,7 @@
       </c>
       <c r="B186" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H186" s="10" t="inlineStr">
@@ -4323,7 +4573,7 @@
       </c>
       <c r="B187" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H187" s="10" t="inlineStr">
@@ -4341,7 +4591,7 @@
       </c>
       <c r="B188" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H188" s="10" t="inlineStr">
@@ -4359,7 +4609,7 @@
       </c>
       <c r="B189" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H189" s="10" t="inlineStr">
@@ -4377,7 +4627,7 @@
       </c>
       <c r="B190" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H190" s="10" t="inlineStr">
@@ -4395,7 +4645,7 @@
       </c>
       <c r="B191" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H191" s="10" t="inlineStr">
@@ -4413,7 +4663,7 @@
       </c>
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H192" s="10" t="inlineStr">
@@ -4431,7 +4681,7 @@
       </c>
       <c r="B193" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H193" s="10" t="inlineStr">
@@ -4449,7 +4699,7 @@
       </c>
       <c r="B194" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H194" s="10" t="inlineStr">
@@ -4467,7 +4717,7 @@
       </c>
       <c r="B195" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H195" s="10" t="inlineStr">
@@ -4485,7 +4735,7 @@
       </c>
       <c r="B196" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H196" s="10" t="inlineStr">
@@ -4503,7 +4753,7 @@
       </c>
       <c r="B197" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H197" s="10" t="inlineStr">
@@ -4521,7 +4771,7 @@
       </c>
       <c r="B198" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H198" s="10" t="inlineStr">
@@ -4539,7 +4789,7 @@
       </c>
       <c r="B199" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H199" s="10" t="inlineStr">
@@ -4557,7 +4807,7 @@
       </c>
       <c r="B200" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H200" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -4825,7 +4825,7 @@
       </c>
       <c r="B201" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H201" s="10" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B202" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H202" s="10" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B203" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H203" s="10" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B204" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H204" s="10" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H205" s="10" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B206" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H206" s="10" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B207" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H207" s="10" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B208" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H208" s="10" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B209" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H209" s="10" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B210" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H210" s="10" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B211" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H211" s="10" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B212" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H212" s="10" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B213" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H213" s="10" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B214" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H214" s="10" t="inlineStr">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="B215" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H215" s="10" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="B216" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H216" s="10" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B217" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H217" s="10" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="B218" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H218" s="10" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B219" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H219" s="10" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H220" s="10" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B221" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H221" s="10" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B222" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H222" s="10" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B223" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H223" s="10" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B224" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H224" s="10" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B225" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H225" s="10" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="B226" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H226" s="10" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B227" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H227" s="10" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B228" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H228" s="10" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H229" s="10" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B230" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H230" s="10" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="B231" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H231" s="10" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B232" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H232" s="10" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B233" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H233" s="10" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B234" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H234" s="10" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B235" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H235" s="10" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B236" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H236" s="10" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B237" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H237" s="10" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B238" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H238" s="10" t="inlineStr">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B239" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H239" s="10" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="B240" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H240" s="10" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B241" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H241" s="10" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H242" s="10" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B243" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H243" s="10" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="B244" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H244" s="10" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H245" s="10" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="B246" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H246" s="10" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B247" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H247" s="10" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="B248" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H248" s="10" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B249" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H249" s="10" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B250" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H250" s="10" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B251" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H251" s="10" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B252" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H252" s="10" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B253" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H253" s="10" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B254" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H254" s="10" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H255" s="10" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="B256" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H256" s="10" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="B257" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H257" s="10" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B258" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H258" s="10" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="B259" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H259" s="10" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B260" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H260" s="10" t="inlineStr">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="B261" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H261" s="10" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="B262" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H262" s="10" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B263" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H263" s="10" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="B264" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H264" s="10" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B265" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H265" s="10" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="B266" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H266" s="10" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B267" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H267" s="10" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B268" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H268" s="10" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B269" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H269" s="10" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B270" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H270" s="10" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="B271" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H271" s="10" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B272" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H272" s="10" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B273" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H273" s="10" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B274" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H274" s="10" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H275" s="10" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="B276" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H276" s="10" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="B277" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H277" s="10" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B278" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H278" s="10" t="inlineStr">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H279" s="10" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B280" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H280" s="10" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B281" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H281" s="10" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B282" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H282" s="10" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B283" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H283" s="10" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="B284" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H284" s="10" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B285" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H285" s="10" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B286" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H286" s="10" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="B287" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H287" s="10" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B288" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H288" s="10" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B289" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H289" s="10" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B290" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H290" s="10" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="B291" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H291" s="10" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B292" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H292" s="10" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B293" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H293" s="10" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="B294" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H294" s="10" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="B295" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H295" s="10" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B296" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H296" s="10" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B297" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H297" s="10" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B298" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H298" s="10" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B299" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H299" s="10" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B300" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H300" s="10" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="B301" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H301" s="10" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B302" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H302" s="10" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B303" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H303" s="10" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="B304" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H304" s="10" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B305" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H305" s="10" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B306" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H306" s="10" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B307" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H307" s="10" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B308" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H308" s="10" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="B309" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H309" s="10" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B310" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H310" s="10" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="B311" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H311" s="10" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B312" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H312" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B313" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H313" s="10" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="B314" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H314" s="10" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B315" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H315" s="10" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="B316" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H316" s="10" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="B317" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H317" s="10" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B318" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H318" s="10" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B319" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H319" s="10" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="B320" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H320" s="10" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B321" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H321" s="10" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B322" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H322" s="10" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B323" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H323" s="10" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B324" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H324" s="10" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="B325" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H325" s="10" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B326" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H326" s="10" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="B327" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H327" s="10" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B328" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H328" s="10" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B329" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H329" s="10" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B330" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H330" s="10" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B331" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H331" s="10" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="B332" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H332" s="10" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="B333" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H333" s="10" t="inlineStr">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="B334" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H334" s="10" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="B335" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H335" s="10" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="B336" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H336" s="10" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="B337" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H337" s="10" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B338" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H338" s="10" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B339" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H339" s="10" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B340" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H340" s="10" t="inlineStr">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="B341" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H341" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B342" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H342" s="10" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B343" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H343" s="10" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="B344" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H344" s="10" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="B345" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H345" s="10" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B346" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H346" s="10" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B347" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H347" s="10" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B348" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H348" s="10" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B349" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H349" s="10" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B350" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H350" s="10" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="B351" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H351" s="10" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B352" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H352" s="10" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B353" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H353" s="10" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B354" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H354" s="10" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B355" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H355" s="10" t="inlineStr">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B356" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H356" s="10" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B357" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H357" s="10" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B358" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H358" s="10" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B359" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H359" s="10" t="inlineStr">

--- a/RotoDNFStats.xlsx
+++ b/RotoDNFStats.xlsx
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B360" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H360" s="10" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="B361" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H361" s="10" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B362" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H362" s="10" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B363" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H363" s="10" t="inlineStr">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="B364" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H364" s="10" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B365" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H365" s="10" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="B366" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H366" s="10" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B367" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H367" s="10" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="B368" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H368" s="10" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="B369" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H369" s="10" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="B370" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H370" s="10" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="B371" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H371" s="10" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B372" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H372" s="10" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B373" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H373" s="10" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B374" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H374" s="10" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="B375" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H375" s="10" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="B376" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H376" s="10" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="B377" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H377" s="10" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B378" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H378" s="10" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B379" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H379" s="10" t="inlineStr">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="B380" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H380" s="10" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B381" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H381" s="10" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="B382" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H382" s="10" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B383" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H383" s="10" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B384" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H384" s="10" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="B385" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H385" s="10" t="inlineStr">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="B386" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H386" s="10" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B387" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H387" s="10" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B388" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H388" s="10" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="B389" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H389" s="10" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="B390" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H390" s="10" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="B391" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H391" s="10" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B392" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H392" s="10" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B393" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H393" s="10" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="B394" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H394" s="10" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B395" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H395" s="10" t="inlineStr">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="B396" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H396" s="10" t="inlineStr">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="B397" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H397" s="10" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="B398" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H398" s="10" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B399" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H399" s="10" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="B400" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H400" s="10" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="B401" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H401" s="10" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="B402" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H402" s="10" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B403" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H403" s="10" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="B404" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H404" s="10" t="inlineStr">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="B405" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H405" s="10" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B406" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H406" s="10" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="B407" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H407" s="10" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="B408" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H408" s="10" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="B409" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H409" s="10" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="B410" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H410" s="10" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="B411" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H411" s="10" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B412" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H412" s="10" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B413" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H413" s="10" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B414" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H414" s="10" t="inlineStr">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="B415" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H415" s="10" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="B416" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H416" s="10" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="B417" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H417" s="10" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B418" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H418" s="10" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B419" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H419" s="10" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="B420" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H420" s="10" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="B421" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H421" s="10" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="B422" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H422" s="10" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B423" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H423" s="10" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="B424" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H424" s="10" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B425" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H425" s="10" t="inlineStr">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B426" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H426" s="10" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="B427" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H427" s="10" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B428" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H428" s="10" t="inlineStr">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B429" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H429" s="10" t="inlineStr">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="B430" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H430" s="10" t="inlineStr">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="B431" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H431" s="10" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B432" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H432" s="10" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="B433" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H433" s="10" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="B434" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H434" s="10" t="inlineStr">
